--- a/docs/Container/CCrand.xlsx
+++ b/docs/Container/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\###Bookdown\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22CA812-2C9C-49B2-940B-C98F59629D00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF69A37D-F534-4427-B31B-A2C9B6647894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52920" yWindow="11760" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="6" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="CharacterSheet" sheetId="1" r:id="rId4"/>
     <sheet name="Prices+Changelog" sheetId="2" r:id="rId5"/>
     <sheet name="Backstory" sheetId="11" r:id="rId6"/>
-    <sheet name="Items (2)" sheetId="10" r:id="rId7"/>
-    <sheet name="Währung" sheetId="6" r:id="rId8"/>
+    <sheet name="Abfrage" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="238">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -217,9 +218,6 @@
     <t>Arme</t>
   </si>
   <si>
-    <t>Sonst oft genutzt</t>
-  </si>
-  <si>
     <t>Acrobatics</t>
   </si>
   <si>
@@ -373,9 +371,6 @@
     <t>Animal Handling</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>Perception</t>
   </si>
   <si>
@@ -685,520 +680,79 @@
     <t>Hanlo, dieses ist ein Beispielcharakter, seine backstory ist beispielhaft</t>
   </si>
   <si>
-    <t>Tiers:</t>
-  </si>
-  <si>
-    <t>Fernwaffen:</t>
-  </si>
-  <si>
-    <t>Nahkampf</t>
-  </si>
-  <si>
-    <t>Fernkampf</t>
-  </si>
-  <si>
-    <t>Light armor</t>
-  </si>
-  <si>
-    <t>medium armor</t>
-  </si>
-  <si>
-    <t>Heavy armor</t>
-  </si>
-  <si>
-    <t>Schaden schwert</t>
-  </si>
-  <si>
-    <t>DnD silver/schwert</t>
-  </si>
-  <si>
-    <t>Bogen</t>
-  </si>
-  <si>
-    <t>75% Schwert damage</t>
-  </si>
-  <si>
-    <t>Stufe1</t>
-  </si>
-  <si>
-    <t>eisen</t>
-  </si>
-  <si>
-    <t>Buche</t>
-  </si>
-  <si>
-    <t>gambeson</t>
-  </si>
-  <si>
-    <t>Armbrust</t>
-  </si>
-  <si>
-    <t>Bogen*1,3, 50% Wsl single action Nachladen, Sneak Attack advantage= 4, light shield</t>
-  </si>
-  <si>
-    <t>stufe2</t>
-  </si>
-  <si>
-    <t>stahl</t>
-  </si>
-  <si>
-    <t>Lärche</t>
-  </si>
-  <si>
-    <t>lederbeschlag</t>
-  </si>
-  <si>
-    <t>Muskete</t>
-  </si>
-  <si>
-    <t>60% trefferchance, 1 Runde nachladen, 90% Ap,  Schaden: Bogen*3,Sneak Attack advantage= 4, Price*2.5</t>
-  </si>
-  <si>
-    <t>stufe3</t>
-  </si>
-  <si>
-    <t>gehärteter stahl</t>
-  </si>
-  <si>
-    <t>Esche</t>
-  </si>
-  <si>
-    <t>kettenbeschlag</t>
-  </si>
-  <si>
-    <t>stufe4</t>
-  </si>
-  <si>
-    <t>Zwergenstahl</t>
-  </si>
-  <si>
-    <t>Zwergen</t>
-  </si>
-  <si>
-    <t>zwergenbeschlag</t>
-  </si>
-  <si>
-    <t>Nahwaffen:</t>
-  </si>
-  <si>
-    <t>Great variants= Damage*1.6, but no secondary hand, Price*1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stufe 5 </t>
-  </si>
-  <si>
-    <t>Pre runner</t>
-  </si>
-  <si>
-    <t>prerunner</t>
-  </si>
-  <si>
-    <t>pre runner</t>
-  </si>
-  <si>
-    <t>unbez</t>
-  </si>
-  <si>
-    <t>Greatsword</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Greataxe</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>80% Schaden 20% AP</t>
-  </si>
-  <si>
-    <t>Eigenschaften:</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>70% Schaden, 40% AP,30% Betäubungschance</t>
-  </si>
-  <si>
-    <t>Kategorie</t>
-  </si>
-  <si>
-    <t>Anziehen</t>
-  </si>
-  <si>
-    <t>Ausziehen</t>
-  </si>
-  <si>
-    <t>Armor rating</t>
-  </si>
-  <si>
-    <t>AR/Teil</t>
-  </si>
-  <si>
-    <t>kein groß</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>1 min</t>
-  </si>
-  <si>
-    <t>6kg/5</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>Base*0.2</t>
-  </si>
-  <si>
-    <t>0.4*Waffe/teil</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>60% schaden, 50% betäubungsschance, price/2</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>5 min</t>
-  </si>
-  <si>
-    <t>1min</t>
-  </si>
-  <si>
-    <t>15kg/5</t>
-  </si>
-  <si>
-    <t>Base*1.75</t>
-  </si>
-  <si>
-    <t>Base*0.35</t>
-  </si>
-  <si>
-    <t>0.6*Waffe</t>
-  </si>
-  <si>
-    <t>über 13 kg stealth disatvantage 2</t>
-  </si>
-  <si>
-    <t>Schlagring</t>
-  </si>
-  <si>
-    <t>40% Schaden, unarmed, 20% Betäubungschance</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>10 min</t>
-  </si>
-  <si>
-    <t>30kg/5</t>
-  </si>
-  <si>
-    <t>Base*2.5</t>
-  </si>
-  <si>
-    <t>Base*0.5</t>
-  </si>
-  <si>
-    <t>0.8*Waffe</t>
-  </si>
-  <si>
-    <t>über 20 kg: Stealth disatvantage</t>
-  </si>
-  <si>
-    <t>Großwaffen:</t>
-  </si>
-  <si>
-    <t>gegner immer at advantage beim angriff, außer in formation oder vom mount, light shield</t>
-  </si>
-  <si>
-    <t>Schilde:</t>
-  </si>
-  <si>
-    <t>Speer</t>
-  </si>
-  <si>
-    <t>leichter, 80% schaden, schaden*2 wenn in formation oder gegen groß, preis*0.8</t>
-  </si>
-  <si>
-    <t>Entwaffnungschance</t>
-  </si>
-  <si>
-    <t>Schildwert</t>
-  </si>
-  <si>
-    <t>Hellebarde</t>
-  </si>
-  <si>
-    <t>speer*1.4kg,  schaden*2 wenn in formation oder gegen groß, price*1.4</t>
-  </si>
-  <si>
-    <t>Schwert*0.25</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>rüstung light</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>Schwert*0.5</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>rüstung mittel</t>
-  </si>
-  <si>
-    <t>tower</t>
-  </si>
-  <si>
-    <t>Schwert*0.75</t>
-  </si>
-  <si>
-    <t>4 kg</t>
-  </si>
-  <si>
-    <t>rüstung schwer</t>
-  </si>
-  <si>
-    <t>Alltagszeug:</t>
-  </si>
-  <si>
-    <t>Holster:</t>
-  </si>
-  <si>
-    <t>Pfeil/Bolzen:</t>
-  </si>
-  <si>
-    <t>Tranktaschen</t>
-  </si>
-  <si>
-    <t>Slots</t>
-  </si>
-  <si>
-    <t>Preis</t>
-  </si>
-  <si>
-    <t>Mit TT - trank/bombe als simple action.</t>
-  </si>
-  <si>
-    <t>PDF Seite</t>
-  </si>
-  <si>
-    <t>DnD seite</t>
-  </si>
-  <si>
-    <t>Kugeln:</t>
-  </si>
-  <si>
-    <t>normale Tasche</t>
-  </si>
-  <si>
-    <t>Adventurer stuff</t>
-  </si>
-  <si>
-    <t>Tranktasche norm</t>
-  </si>
-  <si>
-    <t>Handwerk/instrumente</t>
-  </si>
-  <si>
-    <t>Große Tasche</t>
-  </si>
-  <si>
-    <t>Mounts/Vehicles/trade goods</t>
-  </si>
-  <si>
-    <t>Lifestyle</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>Artillerie</t>
   </si>
   <si>
-    <t>Reichweite</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>Preis/Kugel</t>
-  </si>
-  <si>
-    <t>Max Besatzung</t>
-  </si>
-  <si>
-    <t>Negates Cover</t>
-  </si>
-  <si>
-    <t>Skorpion</t>
-  </si>
-  <si>
-    <t>100m</t>
-  </si>
-  <si>
-    <t>30 kg</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>wenn nur 1 Mann besatzung - nachladen als main action, 3 runden aufbau im kampf</t>
-  </si>
-  <si>
-    <t>Balliste</t>
-  </si>
-  <si>
-    <t>250m</t>
-  </si>
-  <si>
-    <t>250 kg</t>
-  </si>
-  <si>
-    <t>verboten</t>
-  </si>
-  <si>
-    <t>Holz</t>
-  </si>
-  <si>
-    <t>Nachladen 1 Runde minimum, 2 Runden wenn besatzung &lt;3</t>
-  </si>
-  <si>
-    <t>Großkanone</t>
-  </si>
-  <si>
-    <t>400m</t>
-  </si>
-  <si>
-    <t>900 kg</t>
-  </si>
-  <si>
-    <t>Stein</t>
-  </si>
-  <si>
-    <t>Wurfwaffen</t>
-  </si>
-  <si>
-    <t>Größe</t>
-  </si>
-  <si>
-    <t>Zerstörungschance</t>
-  </si>
-  <si>
-    <t>Anzahl in Holster</t>
-  </si>
-  <si>
-    <t>Interrupt %</t>
-  </si>
-  <si>
-    <t>Bola</t>
-  </si>
-  <si>
-    <t>Groß</t>
-  </si>
-  <si>
-    <t>Wurfmesser</t>
-  </si>
-  <si>
-    <t>Klein</t>
-  </si>
-  <si>
-    <t>Wurfaxt</t>
-  </si>
-  <si>
-    <t>Javelin</t>
-  </si>
-  <si>
-    <t>klein</t>
-  </si>
-  <si>
-    <t>Imperiale Reiks</t>
-  </si>
-  <si>
-    <t>Zwergenkronen</t>
-  </si>
-  <si>
-    <t>Rah Kari</t>
-  </si>
-  <si>
-    <t>Thaler(Skaen)</t>
-  </si>
-  <si>
-    <t>DnD silber</t>
-  </si>
-  <si>
-    <t>Lebensstil Täglich</t>
-  </si>
-  <si>
-    <t>Währung</t>
-  </si>
-  <si>
-    <t>Kurs Reiks</t>
-  </si>
-  <si>
-    <t>DnD Silver (10s=1g)</t>
-  </si>
-  <si>
-    <t>Thaler</t>
-  </si>
-  <si>
-    <t>Squalid</t>
-  </si>
-  <si>
-    <t>Reiks</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>DnD Silver</t>
-  </si>
-  <si>
-    <t>Modest</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>wealthy</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>aristocrat</t>
-  </si>
-  <si>
-    <t>Achtung: im DND rulebook wird oft in cp oder gp gerechnet nicht nur in sp(Silver)</t>
-  </si>
-  <si>
-    <t>der umrechnungskurs: 10 cp= 1 sp, 10sp= 1 gp</t>
-  </si>
-  <si>
     <t>Glaube</t>
+  </si>
+  <si>
+    <t>Belastung</t>
+  </si>
+  <si>
+    <t>(Phy*2</t>
+  </si>
+  <si>
+    <t>AttributName</t>
+  </si>
+  <si>
+    <t>Skillname</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Waffe1</t>
+  </si>
+  <si>
+    <t>Waffe2</t>
+  </si>
+  <si>
+    <t>Waffe1Typ</t>
+  </si>
+  <si>
+    <t>Waffe2Typ</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Lucksave</t>
+  </si>
+  <si>
+    <t>Toxisave</t>
+  </si>
+  <si>
+    <t>Ausdauersafe</t>
+  </si>
+  <si>
+    <t>aktivgew</t>
+  </si>
+  <si>
+    <t>gesamtgew</t>
+  </si>
+  <si>
+    <t>Waffe3</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Waffe3Typ</t>
+  </si>
+  <si>
+    <t>Feilschenattr</t>
+  </si>
+  <si>
+    <t>intimidationattr</t>
+  </si>
+  <si>
+    <t>Rasse</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,8 +912,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1471,30 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1842,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1856,14 +1392,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1874,13 +1408,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1889,123 +1420,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="218">
+  <dxfs count="224">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2860,6 +2392,48 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3948,140 +3522,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.68359375" customWidth="1"/>
-    <col min="3" max="3" width="7.15625" customWidth="1"/>
-    <col min="4" max="4" width="6.83984375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="4.15625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="3.83984375" customWidth="1"/>
-    <col min="7" max="7" width="1.68359375" customWidth="1"/>
-    <col min="8" max="8" width="4.15625" customWidth="1"/>
-    <col min="9" max="9" width="2.41796875" customWidth="1"/>
-    <col min="10" max="10" width="4.83984375" customWidth="1"/>
-    <col min="11" max="11" width="2.41796875" customWidth="1"/>
-    <col min="12" max="12" width="4.68359375" customWidth="1"/>
-    <col min="13" max="13" width="1.83984375" customWidth="1"/>
-    <col min="14" max="14" width="3.68359375" customWidth="1"/>
-    <col min="15" max="15" width="4.15625" customWidth="1"/>
-    <col min="16" max="16" width="17.83984375" customWidth="1"/>
-    <col min="17" max="17" width="4.578125" customWidth="1"/>
-    <col min="18" max="18" width="8.26171875" style="61" customWidth="1"/>
-    <col min="19" max="19" width="15.68359375" customWidth="1"/>
-    <col min="20" max="20" width="4.83984375" customWidth="1"/>
-    <col min="21" max="21" width="6.15625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.578125" customWidth="1"/>
-    <col min="23" max="23" width="4.83984375" customWidth="1"/>
-    <col min="24" max="24" width="7.15625" customWidth="1"/>
-    <col min="26" max="26" width="6.83984375" customWidth="1"/>
-    <col min="27" max="27" width="9.68359375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="1.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="56" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="16" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="35" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="60" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="37">
         <v>30</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="37">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="69" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="97">
+      <c r="Q2" s="92">
         <f>CharacterSheet!B2</f>
         <v>12</v>
       </c>
-      <c r="R2" s="116"/>
-      <c r="S2" s="122" t="s">
+      <c r="R2" s="110"/>
+      <c r="S2" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="124"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="120"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -4097,45 +3671,45 @@
       <c r="E3" s="11"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="71" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="85">
+      <c r="Q3" s="80">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="R3" s="100"/>
-      <c r="S3" s="69" t="s">
+      <c r="R3" s="95"/>
+      <c r="S3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="70">
+      <c r="V3" s="65">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="W3" s="68"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20" t="s">
+      <c r="W3" s="63"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -4151,43 +3725,43 @@
       <c r="E4" s="11"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="71" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="98">
+      <c r="Q4" s="93">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="R4" s="100"/>
-      <c r="S4" s="71" t="s">
+      <c r="R4" s="95"/>
+      <c r="S4" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="72">
+      <c r="V4" s="67">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="W4" s="68"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20" t="s">
+      <c r="W4" s="63"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
@@ -4205,43 +3779,43 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="24"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="71" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="110">
+      <c r="Q5" s="104">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="R5" s="100"/>
-      <c r="S5" s="71" t="s">
+      <c r="R5" s="95"/>
+      <c r="S5" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="58" t="s">
+      <c r="T5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="58"/>
-      <c r="V5" s="72">
+      <c r="U5" s="53"/>
+      <c r="V5" s="67">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="W5" s="68"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="W5" s="63"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="11"/>
@@ -4249,23 +3823,23 @@
       <c r="E6" s="11"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="71" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="90">
+      <c r="Q6" s="85">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="R6" s="100"/>
-      <c r="S6" s="71" t="s">
+      <c r="R6" s="95"/>
+      <c r="S6" s="66" t="s">
         <v>38</v>
       </c>
       <c r="T6" s="11" t="s">
@@ -4274,141 +3848,141 @@
       <c r="U6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="72">
+      <c r="V6" s="67">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="W6" s="68"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="W6" s="63"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="113" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="114">
+      <c r="Q7" s="108">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="R7" s="100"/>
-      <c r="S7" s="71" t="s">
-        <v>332</v>
+      <c r="R7" s="95"/>
+      <c r="S7" s="66" t="s">
+        <v>213</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="V7" s="72">
+        <v>93</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="67">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="51" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="69" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="115">
+      <c r="Q8" s="109">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="R8" s="100"/>
-      <c r="S8" s="71" t="s">
+      <c r="R8" s="95"/>
+      <c r="S8" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="58" t="s">
+      <c r="T8" s="53" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="72">
+      <c r="V8" s="67">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="W8" s="68"/>
-      <c r="X8" s="20"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="16"/>
       <c r="Y8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="20"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="20" t="s">
+      <c r="Z8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>10.5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <v>7</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="120" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q9" s="121">
+      <c r="F9" s="25"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q9" s="115">
         <v>5</v>
       </c>
-      <c r="R9" s="100"/>
-      <c r="S9" s="71" t="s">
+      <c r="R9" s="95"/>
+      <c r="S9" s="66" t="s">
         <v>46</v>
       </c>
       <c r="T9" s="11" t="s">
@@ -4417,12 +3991,12 @@
       <c r="U9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="72">
+      <c r="V9" s="67">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="W9" s="68"/>
-      <c r="X9" s="20"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="16"/>
       <c r="Y9" s="11" t="s">
         <v>52</v>
       </c>
@@ -4431,55 +4005,55 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>6</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <v>7</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="71" t="s">
+      <c r="L10" s="21"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="102">
+      <c r="Q10" s="97">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="R10" s="100">
+      <c r="R10" s="95">
         <f>$P$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="73" t="s">
+      <c r="S10" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="67" t="s">
+      <c r="T10" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="67"/>
-      <c r="V10" s="74">
+      <c r="U10" s="62"/>
+      <c r="V10" s="69">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="W10" s="68"/>
-      <c r="X10" s="20"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="16"/>
       <c r="Y10" s="11" t="s">
         <v>57</v>
       </c>
@@ -4488,924 +4062,940 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>6</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>7</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="24"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="71" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="103">
+      <c r="Q11" s="98">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="R11" s="100"/>
-      <c r="S11" s="122" t="s">
+      <c r="R11" s="95"/>
+      <c r="S11" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="129"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="125"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="20"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z11" s="11">
         <f>Q2*4</f>
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>10.5</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>7</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="24"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="104" t="s">
+      <c r="L12" s="21"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q12" s="117">
+        <f>ROUNDUP((Q7+Q5)/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="R12" s="95"/>
+      <c r="S12" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="105">
-        <v>11</v>
-      </c>
-      <c r="R12" s="100"/>
-      <c r="S12" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="T12" s="65" t="s">
+      <c r="T12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="V12" s="70">
+      <c r="V12" s="65">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="20"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="16"/>
       <c r="Y12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z12" s="11">
         <f>Z11-Z10</f>
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="48">
         <v>10.5</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="23">
         <v>7</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="S13" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="55" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="S13" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="55"/>
-      <c r="V13" s="72">
+      <c r="U13" s="50"/>
+      <c r="V13" s="67">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="W13" s="68"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W13" s="63"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z13" s="11" t="str">
+        <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
+        <v>Leicht</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="54">
+      <c r="C14" s="49">
         <f>SUM(C9:C13)</f>
         <v>43.5</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="125" t="s">
+      <c r="L14" s="21"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="16"/>
+      <c r="S14" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="S14" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="T14" s="55" t="s">
+      <c r="T14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="55"/>
-      <c r="V14" s="72">
+      <c r="U14" s="50"/>
+      <c r="V14" s="67">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="W14" s="68"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="44"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="20"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="24"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="16"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="20"/>
-      <c r="S15" s="73" t="s">
+      <c r="L15" s="21"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="16"/>
+      <c r="S15" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="V15" s="74">
+      <c r="V15" s="69">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="W15" s="71"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="24"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="122" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="124"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="120"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="20"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="20"/>
-    </row>
-    <row r="17" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="20"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="Z16" s="16"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="44">
+        <f>CharacterSheet!B15</f>
+        <v>275</v>
+      </c>
+      <c r="C17" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="40">
+        <f>B17-C17</f>
+        <v>275</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="42">
+      <c r="L17" s="21"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="37">
         <v>0</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="S17" s="69" t="s">
+      <c r="Q17" s="16"/>
+      <c r="S17" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="T17" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="V17" s="70">
+      <c r="U17" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="V17" s="65">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="W17" s="71"/>
-      <c r="X17" s="20"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="16"/>
       <c r="Y17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AB17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="26" t="s">
+    </row>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="58">
+        <f>CharacterSheet!B16</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <f>B18+C18</f>
+        <v>12</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="S18" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="72">
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="S18" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="54"/>
+      <c r="V18" s="67">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="W18" s="68"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20" t="s">
+      <c r="W18" s="63"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Z18" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA18" s="20">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="S19" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="T19" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="72">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="42">
+        <f>CharacterSheet!B17</f>
+        <v>55</v>
+      </c>
+      <c r="C19" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="40">
+        <f>B19+C19</f>
+        <v>55</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="S19" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" s="54"/>
+      <c r="V19" s="67">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="W19" s="68"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20" t="s">
+      <c r="W19" s="63"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="Z19" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="20">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="S20" s="71" t="s">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="40">
+        <f>CharacterSheet!B18</f>
+        <v>192.5</v>
+      </c>
+      <c r="C20" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="40">
+        <f>B20+C20</f>
+        <v>192.5</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="S20" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="V20" s="72">
+      <c r="V20" s="67">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="W20" s="68"/>
-      <c r="X20" s="20"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="16"/>
       <c r="Y20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="49">
-        <f>CharacterSheet!B15</f>
-        <v>275</v>
-      </c>
-      <c r="C21" s="50">
+        <v>94</v>
+      </c>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="40">
+        <f>CharacterSheet!B19</f>
+        <v>110</v>
+      </c>
+      <c r="C21" s="45">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="45">
-        <f>B21-C21</f>
-        <v>275</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="S21" s="71" t="s">
+      <c r="D21" s="40">
+        <f t="shared" ref="D21:D22" si="0">B21+C21</f>
+        <v>110</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="S21" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="U21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="V21" s="72">
+        <v>68</v>
+      </c>
+      <c r="V21" s="67">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="W21" s="68"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-    </row>
-    <row r="22" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="63">
-        <f>CharacterSheet!B16</f>
-        <v>12</v>
-      </c>
-      <c r="C22" s="50">
+      <c r="W21" s="63"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="40">
+        <f>CharacterSheet!B20</f>
+        <v>137.5</v>
+      </c>
+      <c r="C22" s="45">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="16">
-        <f t="shared" ref="D22:D26" si="0">B22-C22</f>
-        <v>12</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="S22" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="T22" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="111"/>
-      <c r="V22" s="74">
+      <c r="D22" s="40">
+        <f t="shared" si="0"/>
+        <v>137.5</v>
+      </c>
+      <c r="E22" s="16" t="str">
+        <f>IF(D18&lt;4,"Debuff","")</f>
+        <v/>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="S22" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="T22" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="U22" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="V22" s="69">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="W22" s="71"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-    </row>
-    <row r="23" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="47" t="s">
+      <c r="W22" s="66"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="E23" s="16" t="str">
+        <f>IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="E24" s="16" t="str">
+        <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="S24" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="47">
-        <f>CharacterSheet!B17</f>
-        <v>55</v>
-      </c>
-      <c r="C23" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="45">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="122" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="45">
-        <f>CharacterSheet!B18</f>
-        <v>192.5</v>
-      </c>
-      <c r="C24" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="45">
-        <f t="shared" si="0"/>
-        <v>192.5</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="S24" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="T24" s="77" t="s">
+      <c r="T24" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="112"/>
-      <c r="V24" s="70">
+      <c r="U24" s="106"/>
+      <c r="V24" s="65">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="W24" s="71"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-    </row>
-    <row r="25" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="45">
-        <f>CharacterSheet!B19</f>
-        <v>110</v>
-      </c>
-      <c r="C25" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="45">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="S25" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="T25" s="76" t="s">
+      <c r="W24" s="66"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="E25" s="16" t="str">
+        <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="S25" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="T25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="111"/>
-      <c r="V25" s="74">
+      <c r="U25" s="105"/>
+      <c r="V25" s="69">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="W25" s="71"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-    </row>
-    <row r="26" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="45">
-        <f>CharacterSheet!B20</f>
-        <v>137.5</v>
-      </c>
-      <c r="C26" s="50">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="45">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="122" t="s">
+      <c r="W25" s="66"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="16"/>
+      <c r="E26" s="16" t="str">
+        <f>IF(D22=0,"Verkrüppelt",IF(D22&lt;=B22*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="S27" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="124"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="S27" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="T27" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="U27" s="79"/>
-      <c r="V27" s="70">
+      <c r="T27" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="U27" s="74"/>
+      <c r="V27" s="65">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="W27" s="71"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="S28" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="T28" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="U28" s="16"/>
-      <c r="V28" s="72">
+      <c r="W27" s="66"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="S28" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="T28" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="U28" s="14"/>
+      <c r="V28" s="67">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="W28" s="68"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-    </row>
-    <row r="29" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="S29" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="T29" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="U29" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="V29" s="74">
+      <c r="W28" s="63"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="S29" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="T29" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="U29" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" s="69">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="W29" s="71"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-    </row>
-    <row r="30" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="122" t="s">
+      <c r="W29" s="66"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="S31" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="S31" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="T31" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="U31" s="80"/>
-      <c r="V31" s="70">
+      <c r="T31" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" s="75"/>
+      <c r="V31" s="65">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="W31" s="68"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="S32" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="T32" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="U32" s="57"/>
-      <c r="V32" s="72">
+      <c r="W31" s="63"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="S32" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="T32" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="52"/>
+      <c r="V32" s="67">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="W32" s="68"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-    </row>
-    <row r="33" spans="16:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="S33" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="T33" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="U33" s="81"/>
-      <c r="V33" s="74">
+      <c r="W32" s="63"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+    </row>
+    <row r="33" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="S33" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="T33" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" s="76"/>
+      <c r="V33" s="69">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="W33" s="68"/>
+      <c r="W33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5418,353 +5008,387 @@
     <mergeCell ref="S23:V23"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="223" priority="112" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="222" priority="113" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="221" priority="114" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="220" priority="115" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="219" priority="116" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="218" priority="117" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="211" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="210" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="110" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="209" priority="97" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="215" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="98" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="214" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="99" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="213" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="100" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="212" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="101" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="211" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="102" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="210" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="203" priority="91" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="209" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="92" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="208" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="93" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="207" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="94" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="206" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="95" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="205" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="96" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="204" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="197" priority="85" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="203" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="86" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="202" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="87" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="201" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="88" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="200" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="89" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="199" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="90" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="198" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="191" priority="79" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="197" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="80" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="196" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="81" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="195" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="82" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="194" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="83" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="193" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="84" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="192" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="185" priority="73" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="191" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="74" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="190" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="75" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="189" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="76" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="188" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="77" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="187" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="78" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="186" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="179" priority="61" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="185" priority="68" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="62" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="184" priority="69" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="63" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="183" priority="70" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="64" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="182" priority="71" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="65" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="181" priority="72" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="66" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="180" priority="73" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="173" priority="55" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="179" priority="62" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="56" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="178" priority="63" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="57" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="177" priority="64" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="58" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="176" priority="65" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="59" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="175" priority="66" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="60" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="174" priority="67" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="167" priority="43" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="173" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="44" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="172" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="45" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="171" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="46" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="170" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="47" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="169" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="48" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="168" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="161" priority="49" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="167" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="50" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="166" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="51" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="165" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="52" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="164" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="53" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="163" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="54" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="162" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="155" priority="37" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="161" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="38" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="160" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="39" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="159" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="40" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="158" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="41" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="157" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="42" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="156" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="149" priority="31" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="155" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="32" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="154" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="33" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="153" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="34" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="152" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="35" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="151" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="36" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="150" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="143" priority="25" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="149" priority="32" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="26" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="148" priority="33" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="27" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="147" priority="34" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="28" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="146" priority="35" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="29" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="145" priority="36" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="30" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="144" priority="37" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="137" priority="19" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="143" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="20" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="142" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="21" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="141" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="22" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="140" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="139" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="24" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="138" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="137" priority="20" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="14" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="136" priority="21" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="135" priority="22" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="16" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="134" priority="23" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="17" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="133" priority="24" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="18" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="132" priority="25" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="131" priority="14" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="8" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="129" priority="16" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="10" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="128" priority="17" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="11" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="127" priority="18" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="12" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="126" priority="19" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="125" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="124" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="123" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="121" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
+    <cfRule type="containsText" dxfId="119" priority="4" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="5" operator="containsText" text="Leicht">
+      <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="6" operator="containsText" text="Schwer">
+      <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E26">
+    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Debuff">
+      <formula>NOT(ISERROR(SEARCH("Debuff",E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E26">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Verstümmelt">
+      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="2" operator="containsText" text="Verkrüppelt">
+      <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5777,243 +5401,243 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" customWidth="1"/>
-    <col min="5" max="5" width="6.578125" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="20">
+        <v>111</v>
+      </c>
+      <c r="B1" s="16">
         <v>30000</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="20">
+        <v>112</v>
+      </c>
+      <c r="E1" s="16">
         <f>13490-E2+E3</f>
         <v>28290</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="20">
+        <v>113</v>
+      </c>
+      <c r="B2" s="16">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="20">
+        <v>114</v>
+      </c>
+      <c r="E2" s="16">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="20">
+        <v>91</v>
+      </c>
+      <c r="B3" s="16">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="20">
+        <v>115</v>
+      </c>
+      <c r="E3" s="16">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="37" t="s">
+    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="37" t="s">
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="B7" s="16">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="16">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2250</v>
+      </c>
+      <c r="C8" s="16">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="16">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="20">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="20">
-        <v>30</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2250</v>
-      </c>
-      <c r="C8" s="20">
-        <v>12</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="20">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="20">
-        <v>15</v>
-      </c>
-      <c r="D9" s="20">
-        <v>3</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f>E10*1000</f>
         <v>2000</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>25</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <f>0.5*E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>125</v>
+      <c r="F10" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="37" t="s">
+    <row r="14" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>120</v>
+      <c r="F14" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="20">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="16">
         <v>2000</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>1.25</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="107" t="s">
-        <v>127</v>
+      <c r="G15" s="101" t="s">
+        <v>125</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="20">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="16">
         <v>2000</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>1.25</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="7">
         <f>SUM(C15:C19)</f>
         <v>43.5</v>
@@ -6021,60 +5645,60 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="20">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="16">
         <v>3000</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>10.5</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>3</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="20">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="16">
         <v>3000</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>10.5</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>3</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35" t="s">
-        <v>132</v>
+      <c r="E18" s="16"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="20">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="16">
         <v>3000</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>10.5</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7">
         <f>SUM(D8:D115)</f>
@@ -6083,35 +5707,35 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35" t="s">
-        <v>134</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7">
@@ -6124,63 +5748,63 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="37" t="s">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="37" t="s">
-        <v>120</v>
+      <c r="F26" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6188,18 +5812,18 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="20">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="16">
         <f>200*E28</f>
         <v>400</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="20">
+      <c r="C28" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="16">
         <f>0.5*E28</f>
         <v>1</v>
       </c>
@@ -6211,18 +5835,18 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="20">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="16">
         <f>420*E29</f>
         <v>1260</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="C29" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="16">
         <f>0.5*E29</f>
         <v>1.5</v>
       </c>
@@ -6234,61 +5858,61 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="37" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="37" t="s">
+      <c r="B33" s="16">
+        <v>100</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="20">
-        <v>100</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="20">
+      <c r="B34" s="16">
         <v>500</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6306,281 +5930,281 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.15625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="F1" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="G1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="H1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="I1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="J1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="K1" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="41" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="B2" s="16">
+        <v>300</v>
+      </c>
+      <c r="C2" s="16">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="20" t="s">
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="20">
-        <v>300</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="G2" s="16">
+        <v>4</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="16">
+        <v>200</v>
+      </c>
+      <c r="C3" s="16">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="16">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="F3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="16">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="16">
+        <v>50</v>
+      </c>
+      <c r="C4" s="16">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="20">
+      <c r="I4" s="16">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="16">
+        <v>50</v>
+      </c>
+      <c r="C5" s="16">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="16">
+        <v>50</v>
+      </c>
+      <c r="C6" s="16">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="16">
         <v>4</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="H6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="16">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="16">
         <v>1</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="20">
-        <v>200</v>
-      </c>
-      <c r="C3" s="20">
-        <v>7</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="20">
-        <v>5</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="H7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="16">
         <v>3</v>
       </c>
-      <c r="H3" s="20">
+      <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="I3" s="20">
+      <c r="K7" s="16">
         <v>0</v>
       </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="20">
-        <v>50</v>
-      </c>
-      <c r="C4" s="20">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="20">
-        <v>2</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="20">
-        <v>1</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="20">
-        <v>3</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="20">
-        <v>50</v>
-      </c>
-      <c r="C5" s="20">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="20">
-        <v>2</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="20">
-        <v>2</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="20">
-        <v>1</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="20">
-        <v>50</v>
-      </c>
-      <c r="C6" s="20">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="20">
-        <v>2</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="20">
-        <v>4</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="20">
-        <v>4</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="20">
-        <v>50</v>
-      </c>
-      <c r="C7" s="20">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="20">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="20">
-        <v>3</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6591,820 +6215,822 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="7.41796875" customWidth="1"/>
-    <col min="3" max="3" width="3.26171875" customWidth="1"/>
-    <col min="4" max="4" width="2.83984375" customWidth="1"/>
-    <col min="5" max="5" width="19.578125" customWidth="1"/>
-    <col min="6" max="6" width="4.68359375" customWidth="1"/>
-    <col min="7" max="7" width="5.41796875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="4.26171875" customWidth="1"/>
-    <col min="9" max="9" width="6.68359375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.15625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="E1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="I1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="M1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16">
         <f>B4+B7+B8+B9</f>
         <v>34</v>
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="92">
         <v>12</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>-4</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>10</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="18">
         <v>-9</v>
       </c>
-      <c r="I2" s="94">
+      <c r="I2" s="89">
         <v>29</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="80">
         <v>12</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>-2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <v>10</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="78" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
         <v>-10</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="90">
         <v>30</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3</v>
+      </c>
+      <c r="N3" s="16">
+        <v>5</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="20">
-        <v>3</v>
-      </c>
-      <c r="N3" s="20">
-        <v>5</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>85</v>
-      </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="98">
+      <c r="B4" s="93">
         <v>12</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>-4</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <v>10</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="95">
+      <c r="I4" s="90">
         <v>20</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="16">
+        <v>4</v>
+      </c>
+      <c r="N4" s="16">
+        <v>2</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="20">
-        <v>4</v>
-      </c>
-      <c r="N4" s="20">
-        <v>2</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="94">
         <v>13</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16">
         <v>10</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="66" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>-10</v>
       </c>
-      <c r="I5" s="95">
+      <c r="I5" s="90">
         <v>30</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="85">
         <v>10</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
         <v>10</v>
       </c>
-      <c r="E6" s="71" t="s">
-        <v>332</v>
+      <c r="E6" s="66" t="s">
+        <v>213</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>68</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="95">
+      <c r="I6" s="90">
         <v>20</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="71" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="87">
         <v>12</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>-4</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <v>10</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="67" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="95">
+      <c r="I7" s="90">
         <v>20</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="71" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="96">
         <v>5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>-8</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <v>10</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="66" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="67" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="95">
+      <c r="I8" s="90">
         <v>20</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="117" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="71" t="s">
-        <v>386</v>
-      </c>
-      <c r="B9" s="101">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="96">
         <v>5</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="73" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="84"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="96">
+      <c r="I9" s="91">
         <v>20</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="71" t="s">
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="103">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="65" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="65" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="94">
+      <c r="I10" s="89">
         <v>20</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="73" t="s">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="102">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="55" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="85"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="95">
+      <c r="I11" s="90">
         <v>24</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="55" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="85"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="95">
+      <c r="I12" s="90">
         <v>20</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="73" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>69</v>
-      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="96">
+      <c r="I13" s="91">
         <v>20</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="69" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="75" t="s">
-        <v>73</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="94">
+      <c r="I14" s="89">
         <v>20</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>-3</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="86"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="81"/>
       <c r="H15" s="7">
         <v>-15</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="90">
         <v>35</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="86"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="81"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="95">
+      <c r="I16" s="90">
         <v>20</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="46">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="41">
         <f>CharacterSheet!$B$15*0.2</f>
         <v>55</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="71" t="s">
-        <v>86</v>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="66" t="s">
+        <v>85</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>174</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="95">
+      <c r="I17" s="90">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="40">
         <f>CharacterSheet!$B$15*0.7</f>
         <v>192.5</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="71" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>69</v>
+      <c r="G18" s="67" t="s">
+        <v>68</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="90">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="40">
         <f>CharacterSheet!$B$15*0.4</f>
         <v>110</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>25</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="87"/>
+      <c r="D19" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>174</v>
+      </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="96">
+      <c r="I19" s="91">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="40">
         <f>CharacterSheet!$B$15*0.5</f>
         <v>137.5</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="77" t="s">
+      <c r="D20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="94">
+      <c r="I20" s="89">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="76" t="s">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="43">
+      <c r="G21" s="82"/>
+      <c r="H21" s="38">
         <v>-8</v>
       </c>
-      <c r="I21" s="96">
+      <c r="I21" s="91">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="84"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="89"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="94">
+      <c r="F23" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="90">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="71" t="s">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="95">
+      <c r="F24" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="91">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="96">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="86"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="89">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="69" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="87"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="95">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="27">
+      <c r="F27" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="88"/>
+      <c r="H27" s="23">
         <v>-15</v>
       </c>
-      <c r="I27" s="96">
+      <c r="I27" s="91">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="H30" s="20">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="H30" s="16">
         <f>SUM(H2:H28)</f>
         <v>-75</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:G4 F6:G6">
@@ -7799,641 +7425,641 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="5.15625" customWidth="1"/>
-    <col min="9" max="9" width="7.41796875" customWidth="1"/>
-    <col min="11" max="11" width="12.83984375" customWidth="1"/>
-    <col min="12" max="12" width="8.83984375" customWidth="1"/>
-    <col min="13" max="13" width="8.41796875" customWidth="1"/>
-    <col min="15" max="15" width="3.578125" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="E2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="I2" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="118" t="s">
+      <c r="J2" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="M2" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="119" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="119" t="s">
+      <c r="N2" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="M2" s="119" t="s">
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N2" s="106" t="s">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="20">
+      <c r="I4" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="16">
+        <v>10</v>
+      </c>
+      <c r="K4" s="16">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="16">
+        <v>10</v>
+      </c>
+      <c r="K5" s="16">
+        <v>2</v>
+      </c>
+      <c r="L5" s="16">
+        <v>12</v>
+      </c>
+      <c r="M5" s="16">
+        <v>2</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="16">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="16">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="16">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="16">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="16">
+        <v>6</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20">
+        <v>5</v>
+      </c>
+      <c r="F17" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="16">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20">
+        <v>6</v>
+      </c>
+      <c r="F18" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="20">
+        <v>7</v>
+      </c>
+      <c r="F19" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="20">
+        <v>8</v>
+      </c>
+      <c r="F20" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="20">
+        <v>9</v>
+      </c>
+      <c r="F21" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20">
+        <v>10</v>
+      </c>
+      <c r="F22" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="20">
+      <c r="B23" s="16">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="20">
+        <v>11</v>
+      </c>
+      <c r="F23" s="21">
         <v>10</v>
       </c>
-      <c r="K4" s="20">
-        <v>2</v>
-      </c>
-      <c r="L4" s="20">
-        <v>2</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="20">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="20">
-        <v>2</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="20" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="20">
-        <v>10</v>
-      </c>
-      <c r="K5" s="20">
-        <v>2</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="B24" s="16">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="20">
         <v>12</v>
       </c>
-      <c r="M5" s="20">
-        <v>2</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="F24" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B25" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="20">
-        <v>4</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="20">
+        <v>13</v>
+      </c>
+      <c r="F25" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B26" s="16">
+        <v>5</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="20">
+        <v>14</v>
+      </c>
+      <c r="F26" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="16">
         <v>6</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="20">
-        <v>6</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="20">
-        <v>8</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="20">
-        <v>10</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="20">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="20">
+        <v>15</v>
+      </c>
+      <c r="F27" s="21">
         <v>12</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="25">
-        <v>2</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="20">
-        <v>2</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="20">
-        <v>4</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="20">
-        <v>6</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="24">
-        <v>5</v>
-      </c>
-      <c r="F17" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="20">
-        <v>8</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="24">
-        <v>6</v>
-      </c>
-      <c r="F18" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="24">
-        <v>7</v>
-      </c>
-      <c r="F19" s="25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24">
-        <v>8</v>
-      </c>
-      <c r="F20" s="25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="24">
-        <v>9</v>
-      </c>
-      <c r="F21" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="20">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="24">
-        <v>10</v>
-      </c>
-      <c r="F22" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="20">
-        <v>2</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="24">
-        <v>11</v>
-      </c>
-      <c r="F23" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="20">
-        <v>3</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="24">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="20">
+        <v>16</v>
+      </c>
+      <c r="F28" s="21">
         <v>12</v>
       </c>
-      <c r="F24" s="25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="20">
-        <v>4</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="24">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="20">
+        <v>17</v>
+      </c>
+      <c r="F29" s="21">
         <v>13</v>
       </c>
-      <c r="F25" s="25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="20">
-        <v>5</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="24">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="20">
+        <v>18</v>
+      </c>
+      <c r="F30" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="20">
+        <v>19</v>
+      </c>
+      <c r="F31" s="21">
         <v>14</v>
       </c>
-      <c r="F26" s="25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" s="20">
-        <v>6</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="24">
-        <v>15</v>
-      </c>
-      <c r="F27" s="25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="24">
-        <v>16</v>
-      </c>
-      <c r="F28" s="25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="24">
-        <v>17</v>
-      </c>
-      <c r="F29" s="25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="24">
-        <v>18</v>
-      </c>
-      <c r="F30" s="25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="24">
-        <v>19</v>
-      </c>
-      <c r="F31" s="25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="26">
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="22">
         <v>20</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="24">
         <v>15</v>
       </c>
     </row>
@@ -8450,14 +8076,14 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.41796875" customWidth="1"/>
+    <col min="1" max="1" width="127.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="s">
-        <v>214</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -8466,1273 +8092,543 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B61920-0E69-46E5-958E-4D76B5088407}">
-  <dimension ref="A1:S38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11" style="20"/>
-    <col min="3" max="3" width="12.41796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11" style="20"/>
-    <col min="5" max="5" width="14.26171875" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="20"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <f>CharacterSheet!B2</f>
+        <v>12</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CharacterSheet!E2</f>
+        <v>Reiten</v>
+      </c>
+      <c r="D2">
+        <f>CharacterSheet!I2</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="16">
+        <f>CharacterSheet!B3</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>CharacterSheet!E3</f>
+        <v>Armed</v>
+      </c>
+      <c r="D3" s="16">
+        <f>CharacterSheet!I3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="16">
+        <f>CharacterSheet!B4</f>
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="str">
+        <f>CharacterSheet!E4</f>
+        <v>Unarmed</v>
+      </c>
+      <c r="D4" s="16">
+        <f>CharacterSheet!I4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16">
+        <f>CharacterSheet!B5</f>
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="str">
+        <f>CharacterSheet!E5</f>
+        <v>Blocken</v>
+      </c>
+      <c r="D5" s="16">
+        <f>CharacterSheet!I5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="16">
+        <f>CharacterSheet!B6</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>CharacterSheet!E6</f>
+        <v>Artillerie</v>
+      </c>
+      <c r="D6" s="16">
+        <f>CharacterSheet!I6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="16">
+        <f>CharacterSheet!B7</f>
+        <v>12</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f>CharacterSheet!E7</f>
+        <v>Ranged</v>
+      </c>
+      <c r="D7" s="16">
+        <f>CharacterSheet!I7</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="str">
+        <f>CharacterSheet!A8</f>
+        <v>Luck</v>
+      </c>
+      <c r="B8" s="16">
+        <f>CharacterSheet!B8</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f>CharacterSheet!E8</f>
+        <v>throwing</v>
+      </c>
+      <c r="D8" s="16">
+        <f>CharacterSheet!I8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="str">
+        <f>CharacterSheet!A9</f>
+        <v>Glaube</v>
+      </c>
+      <c r="B9" s="16">
+        <f>CharacterSheet!B9</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>CharacterSheet!E9</f>
+        <v>Dodge</v>
+      </c>
+      <c r="D9" s="16">
+        <f>CharacterSheet!I9</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="16">
+        <f>CharacterSheet!B10</f>
+        <v>18</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f>CharacterSheet!E10</f>
+        <v>Acrobatics</v>
+      </c>
+      <c r="D10" s="16">
+        <f>CharacterSheet!I10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="16">
+        <f>CharacterSheet!B11</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f>CharacterSheet!E11</f>
+        <v>Schleichen</v>
+      </c>
+      <c r="D11" s="16">
+        <f>CharacterSheet!I11</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="16">
+        <f>CharacterSheet!B15</f>
+        <v>275</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f>CharacterSheet!E12</f>
+        <v>Taschendiebstahl</v>
+      </c>
+      <c r="D12" s="16">
+        <f>CharacterSheet!I12</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="16">
+        <f>CharacterSheet!B16</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f>CharacterSheet!E13</f>
+        <v>Schlossknacken</v>
+      </c>
+      <c r="D13" s="16">
+        <f>CharacterSheet!I13</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="13">
+        <f>Status!C14</f>
+        <v>43.5</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f>CharacterSheet!E14</f>
+        <v>Lying</v>
+      </c>
+      <c r="D14" s="16">
+        <f>CharacterSheet!I14</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>Status!A9</f>
+        <v>Helm</v>
+      </c>
+      <c r="B15" s="13">
+        <f>Status!C9</f>
+        <v>10.5</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f>CharacterSheet!E15</f>
+        <v>Persuation</v>
+      </c>
+      <c r="D15" s="16">
+        <f>CharacterSheet!I15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="str">
+        <f>Status!A10</f>
+        <v>Brust</v>
+      </c>
+      <c r="B16" s="13">
+        <f>Status!C10</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f>CharacterSheet!E16</f>
+        <v>Performance</v>
+      </c>
+      <c r="D16" s="16">
+        <f>CharacterSheet!I16</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="str">
+        <f>Status!A11</f>
+        <v>Arme</v>
+      </c>
+      <c r="B17" s="13">
+        <f>Status!C11</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="16" t="str">
+        <f>CharacterSheet!E17</f>
+        <v>Feilschen</v>
+      </c>
+      <c r="D17" s="16">
+        <f>CharacterSheet!I17</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="str">
+        <f>Status!A12</f>
+        <v>Gürtel</v>
+      </c>
+      <c r="B18" s="13">
+        <f>Status!C12</f>
+        <v>10.5</v>
+      </c>
+      <c r="C18" s="16" t="str">
+        <f>CharacterSheet!E18</f>
+        <v>Insight</v>
+      </c>
+      <c r="D18" s="16">
+        <f>CharacterSheet!I18</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="str">
+        <f>Status!A13</f>
+        <v>Beine</v>
+      </c>
+      <c r="B19" s="13">
+        <f>Status!C13</f>
+        <v>10.5</v>
+      </c>
+      <c r="C19" s="16" t="str">
+        <f>CharacterSheet!E19</f>
+        <v>Intimidation</v>
+      </c>
+      <c r="D19" s="16">
+        <f>CharacterSheet!I19</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20">
+        <f>Inventar!G22</f>
+        <v>15.5</v>
+      </c>
+      <c r="C20" s="16" t="str">
+        <f>CharacterSheet!E20</f>
+        <v xml:space="preserve">Swimming </v>
+      </c>
+      <c r="D20" s="16">
+        <f>CharacterSheet!I20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21">
+        <f>Inventar!G19</f>
+        <v>19.5</v>
+      </c>
+      <c r="C21" s="16" t="str">
+        <f>CharacterSheet!E21</f>
+        <v>Running</v>
+      </c>
+      <c r="D21" s="16">
+        <f>CharacterSheet!I21</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="B22" t="str">
+        <f>Status!Z13</f>
+        <v>Leicht</v>
+      </c>
+      <c r="C22" s="16" t="str">
+        <f>CharacterSheet!E22</f>
+        <v>Handwerk</v>
+      </c>
+      <c r="D22" s="16">
+        <f>CharacterSheet!I22</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="B23">
+        <f>Status!C2</f>
+        <v>30</v>
+      </c>
+      <c r="C23" s="16" t="str">
+        <f>CharacterSheet!E23</f>
+        <v>Alchemie</v>
+      </c>
+      <c r="D23" s="16">
+        <f>CharacterSheet!I23</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="B24" s="16">
+        <f>Status!C3</f>
+        <v>12</v>
+      </c>
+      <c r="C24" s="16" t="str">
+        <f>CharacterSheet!E24</f>
+        <v>Vehicles</v>
+      </c>
+      <c r="D24" s="16">
+        <f>CharacterSheet!I24</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="16">
+        <f>Status!C4</f>
+        <v>15</v>
+      </c>
+      <c r="C25" s="16" t="str">
+        <f>CharacterSheet!E25</f>
+        <v>Animal Handling</v>
+      </c>
+      <c r="D25" s="16">
+        <f>CharacterSheet!I25</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="16">
+        <f>Status!C4</f>
+        <v>15</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="16">
+        <f>CharacterSheet!I26</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="B27" t="str">
+        <f>Status!B2</f>
+        <v>Schwert</v>
+      </c>
+      <c r="C27" s="16" t="str">
+        <f>CharacterSheet!E27</f>
+        <v>Perception</v>
+      </c>
+      <c r="D27" s="16">
+        <f>CharacterSheet!I27</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="20" t="s">
+      <c r="B28" s="16" t="str">
+        <f>Status!B3</f>
+        <v>Dolch</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" t="str">
+        <f>CharacterSheet!B1</f>
+        <v>Mensch</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="16" t="str">
+        <f>Status!B4</f>
+        <v>Schild</v>
+      </c>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>224</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B30">
+        <f>Status!Q12</f>
+        <v>13</v>
+      </c>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="16">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H3" s="11">
-        <v>30</v>
-      </c>
-      <c r="I3" s="11">
-        <f>100*50</f>
-        <v>5000</v>
-      </c>
-      <c r="J3" s="11">
-        <v>7</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="11">
-        <f>42</f>
-        <v>42</v>
-      </c>
-      <c r="I4" s="13">
-        <f>50*450</f>
-        <v>22500</v>
-      </c>
-      <c r="J4" s="13">
+      <c r="B33">
+        <f>CharacterSheet!B8+CharacterSheet!B9</f>
         <v>10</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="M4" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H5" s="11">
-        <v>52</v>
-      </c>
-      <c r="I5" s="11">
-        <f>50*1800</f>
-        <v>90000</v>
-      </c>
-      <c r="J5" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H6" s="11">
-        <f>42+21</f>
-        <v>63</v>
-      </c>
-      <c r="I6" s="11">
-        <f>50*6000</f>
-        <v>300000</v>
-      </c>
-      <c r="J6" s="11">
-        <v>20</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="H7" s="11">
-        <v>75</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J7" s="11">
-        <v>30</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="L8" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="L14" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="11">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="B18" s="11">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="S19" s="20">
-        <f>25*50</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="R20" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="S20" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="S21" s="20">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11">
-        <f>50*50</f>
-        <v>2500</v>
-      </c>
-      <c r="M22" s="11">
-        <v>141</v>
-      </c>
-      <c r="N22" s="11">
-        <v>150</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11">
-        <f>50*300</f>
-        <v>15000</v>
-      </c>
-      <c r="M23" s="11">
-        <v>145</v>
-      </c>
-      <c r="N23" s="11">
-        <v>154</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11">
-        <v>6</v>
-      </c>
-      <c r="D24" s="11">
-        <f>50*900</f>
-        <v>45000</v>
-      </c>
-      <c r="M24" s="11">
-        <v>147</v>
-      </c>
-      <c r="N24" s="11">
-        <v>157</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="M25" s="11">
-        <v>148</v>
-      </c>
-      <c r="N25" s="11">
-        <v>158</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="M26" s="11">
-        <v>149</v>
-      </c>
-      <c r="N26" s="11">
-        <v>159</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B29" s="11">
-        <v>300</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E29" s="11">
-        <v>2</v>
-      </c>
-      <c r="F29" s="11">
-        <v>90000</v>
-      </c>
-      <c r="G29" s="11">
-        <v>100</v>
-      </c>
-      <c r="H29" s="11">
-        <v>2</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="E30" s="11">
-        <v>5</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="G30" s="11">
-        <v>300</v>
-      </c>
-      <c r="H30" s="11">
-        <v>3</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B31" s="11">
-        <v>3600</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E31" s="11">
-        <v>8</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="G31" s="11">
-        <v>750</v>
-      </c>
-      <c r="H31" s="11">
-        <v>3</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="B34" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B35" s="11">
-        <v>500</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="D35" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="E35" s="11">
-        <v>5</v>
-      </c>
-      <c r="F35" s="11">
-        <v>10</v>
-      </c>
-      <c r="G35" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D36" s="36">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="11">
-        <v>2</v>
-      </c>
-      <c r="F36" s="11">
-        <v>25</v>
-      </c>
-      <c r="G36" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B37" s="11">
-        <v>1500</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D37" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-      <c r="F37" s="11">
-        <v>35</v>
-      </c>
-      <c r="G37" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B38" s="11">
-        <v>0</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="D38" s="36">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11">
-        <v>20</v>
-      </c>
-      <c r="F38" s="11">
-        <v>2</v>
-      </c>
-      <c r="G38" s="11">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8316DA1-0F0E-4711-BCC6-A5C80FF9B293}">
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="20">
-        <v>2</v>
-      </c>
-      <c r="D2" s="20">
-        <v>4</v>
-      </c>
-      <c r="E2" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="20">
-        <v>50</v>
-      </c>
-      <c r="B3" s="20">
-        <f>$A3*B$2</f>
-        <v>25</v>
-      </c>
-      <c r="C3" s="20">
-        <f>$A3*C$2</f>
-        <v>100</v>
-      </c>
-      <c r="D3" s="20">
-        <f>$A3*D$2</f>
-        <v>200</v>
-      </c>
-      <c r="E3" s="20">
-        <f>$A3*E$2</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="J3" s="16">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="16">
-        <v>2</v>
-      </c>
-      <c r="N3" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20">
-        <v>100</v>
-      </c>
-      <c r="B4" s="20">
-        <f t="shared" ref="B4:E8" si="0">$A4*B$2</f>
-        <v>50</v>
-      </c>
-      <c r="C4" s="20">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D4" s="20">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E4" s="20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="J4" s="16">
-        <v>50</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1</v>
-      </c>
-      <c r="L4" s="16">
-        <v>25</v>
-      </c>
-      <c r="M4" s="16">
-        <v>100</v>
-      </c>
-      <c r="N4" s="16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="20">
-        <v>500</v>
-      </c>
-      <c r="B5" s="20">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="C5" s="20">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="D5" s="20">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="E5" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="J5" s="16">
-        <v>2</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="L5" s="16">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16">
-        <v>4</v>
-      </c>
-      <c r="N5" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="20">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="20">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="C6" s="20">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="M6" s="16">
-        <v>1</v>
-      </c>
-      <c r="N6" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="20">
-        <v>2000</v>
-      </c>
-      <c r="B7" s="20">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="C7" s="20">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="E7" s="20">
-        <f>$A7*E$2</f>
-        <v>40</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0.125</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20">
-        <v>5000</v>
-      </c>
-      <c r="B8" s="20">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="C8" s="20">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="D8" s="20">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="E8" s="20">
-        <f>$A8*E$2</f>
-        <v>100</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/Container/CCrand.xlsx
+++ b/docs/Container/CCrand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF69A37D-F534-4427-B31B-A2C9B6647894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29DE6E1-6115-41FE-B28E-94D06C14B6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="6" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="242">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Blocken</t>
   </si>
   <si>
-    <t>Experience(Willpower/perception)</t>
-  </si>
-  <si>
     <t>Ranged</t>
   </si>
   <si>
@@ -753,6 +750,21 @@
   </si>
   <si>
     <t>Rasse</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Instinct</t>
+  </si>
+  <si>
+    <t>Inst</t>
+  </si>
+  <si>
+    <t>CritMargNeg</t>
+  </si>
+  <si>
+    <t>CritMargPos</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1549,21 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="226">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3522,8 +3548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,7 +3814,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="66" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="104">
         <f>CharacterSheet!B5</f>
@@ -3874,7 +3900,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="107" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="108">
         <f>CharacterSheet!B7</f>
@@ -3882,13 +3908,13 @@
       </c>
       <c r="R7" s="95"/>
       <c r="S7" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="V7" s="67">
         <f>CharacterSheet!I6</f>
@@ -3901,13 +3927,13 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>2</v>
@@ -3924,7 +3950,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="109">
         <f>CharacterSheet!B8</f>
@@ -3932,13 +3958,13 @@
       </c>
       <c r="R8" s="95"/>
       <c r="S8" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T8" s="53" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" s="67">
         <f>CharacterSheet!I7</f>
@@ -3947,16 +3973,16 @@
       <c r="W8" s="63"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="13">
         <v>10.5</v>
@@ -3976,20 +4002,20 @@
       <c r="N9" s="25"/>
       <c r="O9" s="16"/>
       <c r="P9" s="114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="115">
         <v>5</v>
       </c>
       <c r="R9" s="95"/>
       <c r="S9" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V9" s="67">
         <f>CharacterSheet!I8</f>
@@ -3998,7 +4024,7 @@
       <c r="W9" s="63"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z9" s="11">
         <f>Inventar!$G$22</f>
@@ -4007,10 +4033,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="13">
         <v>6</v>
@@ -4031,7 +4057,7 @@
       <c r="N10" s="27"/>
       <c r="O10" s="16"/>
       <c r="P10" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="97">
         <f>CharacterSheet!B10</f>
@@ -4042,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T10" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" s="62"/>
       <c r="V10" s="69">
@@ -4055,7 +4081,7 @@
       <c r="W10" s="63"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z10" s="11">
         <f>Inventar!$G$19</f>
@@ -4064,10 +4090,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="13">
         <v>6</v>
@@ -4086,7 +4112,7 @@
       <c r="N11" s="27"/>
       <c r="O11" s="16"/>
       <c r="P11" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="98">
         <f>CharacterSheet!B11</f>
@@ -4094,7 +4120,7 @@
       </c>
       <c r="R11" s="95"/>
       <c r="S11" s="118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T11" s="124"/>
       <c r="U11" s="124"/>
@@ -4102,7 +4128,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="11">
         <f>Q2*4</f>
@@ -4111,10 +4137,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="13">
         <v>10.5</v>
@@ -4133,7 +4159,7 @@
       <c r="N12" s="27"/>
       <c r="O12" s="16"/>
       <c r="P12" s="99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="117">
         <f>ROUNDUP((Q7+Q5)/2,0)</f>
@@ -4141,13 +4167,13 @@
       </c>
       <c r="R12" s="95"/>
       <c r="S12" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T12" s="60" t="s">
         <v>22</v>
       </c>
       <c r="U12" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V12" s="65">
         <f>CharacterSheet!I10</f>
@@ -4156,7 +4182,7 @@
       <c r="W12" s="66"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z12" s="11">
         <f>Z11-Z10</f>
@@ -4165,10 +4191,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="48">
         <v>10.5</v>
@@ -4191,10 +4217,10 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="S13" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T13" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U13" s="50"/>
       <c r="V13" s="67">
@@ -4204,7 +4230,7 @@
       <c r="W13" s="63"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z13" s="11" t="str">
         <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
@@ -4213,7 +4239,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="49">
@@ -4231,14 +4257,14 @@
       <c r="N14" s="27"/>
       <c r="O14" s="16"/>
       <c r="P14" s="121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="S14" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T14" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U14" s="50"/>
       <c r="V14" s="67">
@@ -4267,13 +4293,13 @@
       <c r="P15" s="122"/>
       <c r="Q15" s="16"/>
       <c r="S15" s="68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T15" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U15" s="61" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="V15" s="69">
         <f>CharacterSheet!I13</f>
@@ -4288,10 +4314,10 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="16"/>
@@ -4307,7 +4333,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="77"/>
       <c r="S16" s="118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T16" s="119"/>
       <c r="U16" s="119"/>
@@ -4315,13 +4341,13 @@
       <c r="W16" s="7"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="44">
         <f>CharacterSheet!B15</f>
@@ -4350,13 +4376,13 @@
       </c>
       <c r="Q17" s="16"/>
       <c r="S17" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="70" t="s">
-        <v>72</v>
-      </c>
       <c r="U17" s="70" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="V17" s="65">
         <f>CharacterSheet!I14</f>
@@ -4365,21 +4391,21 @@
       <c r="W17" s="66"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AB17" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="AB17" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="58">
         <f>CharacterSheet!B16</f>
@@ -4402,7 +4428,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
@@ -4410,10 +4436,10 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="S18" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T18" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U18" s="54"/>
       <c r="V18" s="67">
@@ -4423,7 +4449,7 @@
       <c r="W18" s="63"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z18" s="16">
         <v>3</v>
@@ -4432,12 +4458,12 @@
         <v>5</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="42">
         <f>CharacterSheet!B17</f>
@@ -4464,10 +4490,10 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="S19" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T19" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U19" s="54"/>
       <c r="V19" s="67">
@@ -4477,7 +4503,7 @@
       <c r="W19" s="63"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z19" s="16">
         <v>4</v>
@@ -4486,12 +4512,12 @@
         <v>2</v>
       </c>
       <c r="AB19" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="40">
         <f>CharacterSheet!B18</f>
@@ -4518,13 +4544,13 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="S20" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="V20" s="67">
         <f>CharacterSheet!I17</f>
@@ -4533,7 +4559,7 @@
       <c r="W20" s="63"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
@@ -4541,7 +4567,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="40">
         <f>CharacterSheet!B19</f>
@@ -4568,13 +4594,13 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="S21" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="U21" s="11" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="V21" s="67">
         <f>CharacterSheet!I18</f>
@@ -4589,7 +4615,7 @@
     </row>
     <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="40">
         <f>CharacterSheet!B20</f>
@@ -4610,7 +4636,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="16"/>
@@ -4622,13 +4648,13 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="S22" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T22" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U22" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V22" s="69">
         <f>CharacterSheet!I19</f>
@@ -4663,7 +4689,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="77"/>
       <c r="S23" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T23" s="119"/>
       <c r="U23" s="119"/>
@@ -4696,7 +4722,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="S24" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T24" s="72" t="s">
         <v>23</v>
@@ -4715,7 +4741,7 @@
     </row>
     <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="16"/>
@@ -4736,7 +4762,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="S25" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T25" s="71" t="s">
         <v>23</v>
@@ -4755,7 +4781,7 @@
     </row>
     <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="16"/>
@@ -4777,7 +4803,7 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="77"/>
       <c r="S26" s="118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T26" s="119"/>
       <c r="U26" s="119"/>
@@ -4791,7 +4817,7 @@
     </row>
     <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
@@ -4808,10 +4834,10 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="S27" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T27" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U27" s="74"/>
       <c r="V27" s="65">
@@ -4842,10 +4868,10 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="S28" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T28" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U28" s="14"/>
       <c r="V28" s="67">
@@ -4873,13 +4899,13 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="S29" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T29" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U29" s="61" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="V29" s="69">
         <f>CharacterSheet!I24</f>
@@ -4907,7 +4933,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="77"/>
       <c r="S30" s="118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T30" s="119"/>
       <c r="U30" s="119"/>
@@ -4933,10 +4959,10 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="S31" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T31" s="75" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="U31" s="75"/>
       <c r="V31" s="65">
@@ -4964,10 +4990,10 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="S32" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T32" s="52" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="U32" s="52"/>
       <c r="V32" s="67">
@@ -4985,10 +5011,10 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="S33" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T33" s="76" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="U33" s="76"/>
       <c r="V33" s="69">
@@ -5008,366 +5034,366 @@
     <mergeCell ref="S23:V23"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="223" priority="112" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="225" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="113" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="224" priority="114" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="114" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="223" priority="115" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="115" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="222" priority="116" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="116" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="221" priority="117" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="117" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="220" priority="118" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="217" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="216" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="215" priority="104" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="105" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="106" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="107" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="108" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="109" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="209" priority="98" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="99" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="100" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="101" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="102" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="103" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="203" priority="92" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="93" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="94" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="95" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="96" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="97" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="197" priority="86" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="87" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="88" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="89" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="90" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="91" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="191" priority="80" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="81" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="82" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="83" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="84" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="85" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="185" priority="68" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="69" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="70" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="71" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="72" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="73" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="179" priority="62" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="63" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="64" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="65" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="66" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="67" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="173" priority="50" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="51" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="52" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="53" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="54" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="55" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="167" priority="56" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="57" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="58" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="59" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="60" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="61" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="161" priority="44" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="45" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="46" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="47" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="48" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="49" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="155" priority="38" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="39" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="40" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="41" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="42" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="43" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="149" priority="32" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="33" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="34" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="35" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="36" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="37" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="143" priority="26" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="27" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="28" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="29" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="30" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="31" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="137" priority="20" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="21" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="22" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="23" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="24" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="25" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="131" priority="14" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="16" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="17" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="18" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="19" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="125" priority="8" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="9" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="10" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="12" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="119" priority="4" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="5" operator="containsText" text="Leicht">
+    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Leicht">
       <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="6" operator="containsText" text="Schwer">
+    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Schwer">
       <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5379,16 +5405,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
-    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Debuff">
+    <cfRule type="containsText" dxfId="118" priority="4" operator="containsText" text="Debuff">
       <formula>NOT(ISERROR(SEARCH("Debuff",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E26">
-    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Verstümmelt">
+    <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="Verstümmelt">
       <formula>NOT(ISERROR(SEARCH("Verstümmelt",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="2" operator="containsText" text="Verkrüppelt">
+    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:U1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Inst">
+      <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5414,14 +5445,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="16">
         <v>30000</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="16">
         <f>13490-E2+E3</f>
@@ -5434,14 +5465,14 @@
     </row>
     <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="16">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="16">
         <f>200</f>
@@ -5450,14 +5481,14 @@
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="16">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="16">
         <f>15000</f>
@@ -5467,22 +5498,22 @@
     <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -5490,7 +5521,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="16">
         <v>5000</v>
@@ -5507,7 +5538,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="16">
         <v>2250</v>
@@ -5518,7 +5549,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -5526,7 +5557,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="16">
         <v>3000</v>
@@ -5562,7 +5593,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5582,29 +5613,29 @@
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>125</v>
-      </c>
       <c r="D14" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="16">
         <v>2000</v>
@@ -5618,14 +5649,14 @@
       <c r="E15" s="16"/>
       <c r="F15" s="12"/>
       <c r="G15" s="101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="16">
         <v>2000</v>
@@ -5647,7 +5678,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="16">
         <v>3000</v>
@@ -5666,7 +5697,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="16">
         <v>3000</v>
@@ -5680,14 +5711,14 @@
       <c r="E18" s="16"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="16">
         <v>3000</v>
@@ -5726,7 +5757,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
@@ -5783,22 +5814,22 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>134</v>
-      </c>
       <c r="D26" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -5814,14 +5845,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="16">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="16">
         <f>0.5*E28</f>
@@ -5837,14 +5868,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="16">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="16">
         <f>0.5*E29</f>
@@ -5871,22 +5902,22 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>140</v>
-      </c>
       <c r="D32" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -5894,7 +5925,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" s="16">
         <v>100</v>
@@ -5906,7 +5937,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="16">
         <v>500</v>
@@ -5937,42 +5968,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>150</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="16">
         <v>300</v>
@@ -5981,25 +6012,25 @@
         <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="16">
         <v>4</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="16">
         <v>1</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K2" s="16">
         <v>6</v>
@@ -6007,7 +6038,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="16">
         <v>200</v>
@@ -6016,13 +6047,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="16">
         <v>5</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="16">
         <v>3</v>
@@ -6042,7 +6073,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="16">
         <v>50</v>
@@ -6051,19 +6082,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="16">
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" s="16">
         <v>3</v>
@@ -6077,7 +6108,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="16">
         <v>50</v>
@@ -6086,19 +6117,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="16">
         <v>2</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="16">
         <v>2</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I5" s="16">
         <v>1</v>
@@ -6112,7 +6143,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="16">
         <v>50</v>
@@ -6121,25 +6152,25 @@
         <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="16">
         <v>2</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="16">
         <v>4</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="16">
         <v>4</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="16">
         <v>3</v>
@@ -6147,7 +6178,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="16">
         <v>50</v>
@@ -6156,19 +6187,19 @@
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="16">
         <v>2</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I7" s="16">
         <v>3</v>
@@ -6216,7 +6247,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,16 +6267,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>168</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>169</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>6</v>
@@ -6255,7 +6286,7 @@
       </c>
       <c r="G1" s="32"/>
       <c r="H1" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>8</v>
@@ -6265,10 +6296,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="16">
@@ -6310,16 +6341,16 @@
         <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="P2" s="9"/>
     </row>
@@ -6356,7 +6387,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" s="16">
         <v>3</v>
@@ -6365,7 +6396,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" s="8"/>
     </row>
@@ -6396,7 +6427,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="16">
         <v>4</v>
@@ -6405,7 +6436,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7"/>
     </row>
@@ -6438,7 +6469,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
@@ -6457,13 +6488,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="90">
@@ -6479,7 +6510,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="B7" s="87">
         <v>12</v>
@@ -6491,13 +6522,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="90">
@@ -6513,7 +6544,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="96">
         <v>5</v>
@@ -6525,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="90">
@@ -6549,7 +6580,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="96">
         <v>5</v>
@@ -6557,10 +6588,10 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="79"/>
       <c r="H9" s="7"/>
@@ -6579,7 +6610,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="103">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
@@ -6588,13 +6619,13 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="60" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="89">
@@ -6612,7 +6643,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="102">
         <f>B5-Inventar!H22</f>
@@ -6621,10 +6652,10 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="7"/>
@@ -6647,10 +6678,10 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="80"/>
       <c r="H12" s="7"/>
@@ -6671,13 +6702,13 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="91">
@@ -6697,13 +6728,13 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="70" t="s">
-        <v>72</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="89">
@@ -6719,7 +6750,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
@@ -6729,10 +6760,10 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="81"/>
       <c r="H15" s="7">
@@ -6751,7 +6782,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
@@ -6759,10 +6790,10 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="81"/>
       <c r="H16" s="7"/>
@@ -6779,7 +6810,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="41">
         <f>CharacterSheet!$B$15*0.2</f>
@@ -6788,13 +6819,13 @@
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>173</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>174</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="90">
@@ -6803,7 +6834,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="40">
         <f>CharacterSheet!$B$15*0.7</f>
@@ -6812,13 +6843,13 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="G18" s="67" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
@@ -6829,7 +6860,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="40">
         <f>CharacterSheet!$B$15*0.4</f>
@@ -6839,16 +6870,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="91">
@@ -6857,7 +6888,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="40">
         <f>CharacterSheet!$B$15*0.5</f>
@@ -6868,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="72" t="s">
         <v>23</v>
@@ -6888,7 +6919,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="71" t="s">
         <v>23</v>
@@ -6905,14 +6936,14 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="84"/>
       <c r="H22" s="7"/>
@@ -6926,10 +6957,10 @@
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="85"/>
       <c r="H23" s="7"/>
@@ -6943,13 +6974,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="91">
@@ -6962,10 +6993,10 @@
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="G25" s="86"/>
       <c r="H25" s="7"/>
@@ -6979,10 +7010,10 @@
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="7"/>
@@ -6996,10 +7027,10 @@
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="G27" s="88"/>
       <c r="H27" s="23">
@@ -7034,386 +7065,392 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:G4 F6:G6">
-    <cfRule type="containsText" dxfId="113" priority="109" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="110" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:G5">
-    <cfRule type="containsText" dxfId="107" priority="103" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="109" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="104" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="108" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="107" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="107" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="108" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="104" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="98" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="101" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="102" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8">
-    <cfRule type="containsText" dxfId="95" priority="91" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="92" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="96" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="94" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="95" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="96" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="92" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="containsText" dxfId="89" priority="85" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="86" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="87" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="88" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="83" priority="79" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="80" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="84" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="81" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="82" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G10">
-    <cfRule type="containsText" dxfId="77" priority="73" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="74" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="78" priority="75" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="73" priority="68" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="72" priority="69" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12">
-    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="66" priority="63" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13">
-    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G14">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:G15">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G18">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:G19">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G21">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G23">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G27">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Inst">
+      <formula>NOT(ISERROR(SEARCH("Inst",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7437,12 +7474,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -7458,40 +7495,40 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="J2" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="113" t="s">
+      <c r="M2" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="N2" s="100" t="s">
         <v>183</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>184</v>
       </c>
       <c r="O2" s="28"/>
     </row>
@@ -7514,14 +7551,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -7529,10 +7566,10 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="J4" s="16">
         <v>10</v>
@@ -7547,20 +7584,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="16">
         <v>2</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="16">
         <v>2</v>
@@ -7568,10 +7605,10 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="J5" s="16">
         <v>10</v>
@@ -7586,20 +7623,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="16">
         <v>4</v>
@@ -7617,14 +7654,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -7642,14 +7679,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="16">
         <v>8</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="16">
         <v>10</v>
@@ -7667,7 +7704,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="16">
         <v>12</v>
@@ -7705,10 +7742,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7743,7 +7780,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="16">
         <v>0.5</v>
@@ -7751,7 +7788,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="16"/>
@@ -7766,7 +7803,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
@@ -7774,7 +7811,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="21">
         <v>2</v>
@@ -7791,7 +7828,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="16">
         <v>2</v>
@@ -7812,7 +7849,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
@@ -7820,10 +7857,10 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -7837,7 +7874,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="16">
         <v>6</v>
@@ -7853,7 +7890,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="16">
         <v>8</v>
@@ -7881,10 +7918,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -7909,7 +7946,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="16">
         <v>1</v>
@@ -7925,7 +7962,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="16">
         <v>2</v>
@@ -7941,7 +7978,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="16">
         <v>3</v>
@@ -7957,7 +7994,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="16">
         <v>4</v>
@@ -7973,7 +8010,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="16">
         <v>5</v>
@@ -7989,7 +8026,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="16">
         <v>6</v>
@@ -8083,7 +8120,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -8095,8 +8132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8106,13 +8143,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -8137,7 +8174,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="16">
         <f>CharacterSheet!B3</f>
@@ -8154,7 +8191,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="16">
         <f>CharacterSheet!B4</f>
@@ -8188,7 +8225,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="16">
         <f>CharacterSheet!B6</f>
@@ -8205,7 +8242,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="16">
         <f>CharacterSheet!B7</f>
@@ -8258,7 +8295,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="16">
         <f>CharacterSheet!B10</f>
@@ -8275,7 +8312,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="16">
         <f>CharacterSheet!B11</f>
@@ -8292,7 +8329,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="16">
         <f>CharacterSheet!B15</f>
@@ -8309,7 +8346,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="16">
         <f>CharacterSheet!B16</f>
@@ -8326,7 +8363,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="13">
         <f>Status!C14</f>
@@ -8433,7 +8470,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20">
         <f>Inventar!G22</f>
@@ -8450,7 +8487,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21">
         <f>Inventar!G19</f>
@@ -8467,7 +8504,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="str">
         <f>Status!Z13</f>
@@ -8484,7 +8521,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23">
         <f>Status!C2</f>
@@ -8501,7 +8538,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" s="16">
         <f>Status!C3</f>
@@ -8518,7 +8555,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="16">
         <f>Status!C4</f>
@@ -8535,14 +8572,14 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="16">
         <f>Status!C4</f>
         <v>15</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="16">
         <f>CharacterSheet!I26</f>
@@ -8551,7 +8588,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" t="str">
         <f>Status!B2</f>
@@ -8568,14 +8605,14 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="16" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D28" t="str">
         <f>CharacterSheet!B1</f>
@@ -8584,27 +8621,37 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="16" t="str">
         <f>Status!B4</f>
         <v>Schild</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30">
         <f>Status!Q12</f>
         <v>13</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
@@ -8614,7 +8661,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="16">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
@@ -8623,7 +8670,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B33">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>

--- a/docs/Container/CCrand.xlsx
+++ b/docs/Container/CCrand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Lele\Rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29DE6E1-6115-41FE-B28E-94D06C14B6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2912DC-E611-4D08-BA86-D34382C35192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Backstory" sheetId="11" r:id="rId6"/>
     <sheet name="Abfrage" sheetId="13" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="257">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -146,12 +149,6 @@
     <t>Unarmed</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Köcher </t>
-  </si>
-  <si>
-    <t>------</t>
-  </si>
-  <si>
     <t>Intelligence</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Schlossknacken</t>
   </si>
   <si>
-    <t>Exp</t>
-  </si>
-  <si>
     <t>Social Skills</t>
   </si>
   <si>
@@ -765,13 +759,67 @@
   </si>
   <si>
     <t>CritMargPos</t>
+  </si>
+  <si>
+    <t>Parthealth</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Health Head</t>
+  </si>
+  <si>
+    <t>Health Torso</t>
+  </si>
+  <si>
+    <t>Health LegR</t>
+  </si>
+  <si>
+    <t>Health LegL</t>
+  </si>
+  <si>
+    <t>Health ArmR</t>
+  </si>
+  <si>
+    <t>Health ArmL</t>
+  </si>
+  <si>
+    <t>Arm Rechts</t>
+  </si>
+  <si>
+    <t>Arm Links</t>
+  </si>
+  <si>
+    <t>Bein Rechts</t>
+  </si>
+  <si>
+    <t>Bein Links</t>
+  </si>
+  <si>
+    <t>Kaiserlich 8</t>
+  </si>
+  <si>
+    <t>Hautwaffe</t>
+  </si>
+  <si>
+    <t>Waffe</t>
+  </si>
+  <si>
+    <t>Drittwaffe</t>
+  </si>
+  <si>
+    <t>Holster</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +861,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="20">
@@ -931,7 +991,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1386,11 +1446,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1406,7 +1512,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1521,6 +1626,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,18 +1651,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
-  <dxfs count="226">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="232">
     <dxf>
       <fill>
         <patternFill>
@@ -2416,6 +2525,55 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3247,6 +3405,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Status"/>
+      <sheetName val="Inventar"/>
+      <sheetName val="Pflanzen"/>
+      <sheetName val="CharacterSheet"/>
+      <sheetName val="Prices+Changelog"/>
+      <sheetName val="Backstory"/>
+      <sheetName val="Währung"/>
+      <sheetName val="Abfrage"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="17">
+          <cell r="B17">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>210</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3546,126 +3762,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="56" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="16" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.68359375" customWidth="1"/>
+    <col min="3" max="3" width="7.15625" customWidth="1"/>
+    <col min="4" max="4" width="6.83984375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.15625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="3.83984375" customWidth="1"/>
+    <col min="7" max="7" width="1.68359375" customWidth="1"/>
+    <col min="8" max="8" width="4.15625" customWidth="1"/>
+    <col min="9" max="9" width="2.41796875" customWidth="1"/>
+    <col min="10" max="10" width="4.83984375" customWidth="1"/>
+    <col min="11" max="11" width="2.41796875" customWidth="1"/>
+    <col min="12" max="12" width="4.68359375" customWidth="1"/>
+    <col min="13" max="13" width="1.83984375" customWidth="1"/>
+    <col min="14" max="14" width="3.68359375" customWidth="1"/>
+    <col min="15" max="15" width="4.15625" customWidth="1"/>
+    <col min="16" max="16" width="17.83984375" customWidth="1"/>
+    <col min="17" max="17" width="4.578125" customWidth="1"/>
+    <col min="18" max="18" width="8.26171875" style="55" customWidth="1"/>
+    <col min="19" max="19" width="15.68359375" customWidth="1"/>
+    <col min="20" max="20" width="4.83984375" customWidth="1"/>
+    <col min="21" max="21" width="6.15625" style="15" customWidth="1"/>
+    <col min="22" max="22" width="5.578125" customWidth="1"/>
+    <col min="23" max="23" width="4.83984375" customWidth="1"/>
+    <col min="24" max="24" width="7.15625" customWidth="1"/>
+    <col min="26" max="26" width="6.83984375" customWidth="1"/>
+    <col min="27" max="27" width="9.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="128" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="31"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="31" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="55" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="32" t="s">
+      <c r="X1" s="15"/>
+      <c r="Y1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>30</v>
       </c>
-      <c r="D2" s="37">
-        <v>7</v>
-      </c>
-      <c r="E2" s="37"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="64" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="92">
+      <c r="Q2" s="91">
         <f>CharacterSheet!B2</f>
         <v>12</v>
       </c>
-      <c r="R2" s="110"/>
+      <c r="R2" s="109"/>
       <c r="S2" s="118" t="s">
         <v>15</v>
       </c>
@@ -3673,15 +3885,15 @@
       <c r="U2" s="119"/>
       <c r="V2" s="120"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16" t="s">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -3691,182 +3903,166 @@
       <c r="C3" s="11">
         <v>12</v>
       </c>
-      <c r="D3" s="11">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="66" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="80">
+      <c r="Q3" s="79">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="R3" s="95"/>
-      <c r="S3" s="64" t="s">
+      <c r="R3" s="94"/>
+      <c r="S3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="65">
+      <c r="V3" s="64">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16" t="s">
+      <c r="W3" s="62"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11">
-        <v>7</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="66" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="93">
+      <c r="Q4" s="92">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="R4" s="95"/>
-      <c r="S4" s="66" t="s">
+      <c r="R4" s="94"/>
+      <c r="S4" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="T4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="53" t="s">
+      <c r="U4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="66">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="W4" s="63"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16" t="s">
+      <c r="W4" s="62"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11">
-        <v>25</v>
-      </c>
-      <c r="D5" s="11">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q5" s="104">
+      <c r="K5" s="20"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="103">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="R5" s="95"/>
-      <c r="S5" s="66" t="s">
+      <c r="R5" s="94"/>
+      <c r="S5" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="67">
+      <c r="U5" s="52"/>
+      <c r="V5" s="66">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="W5" s="63"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="85">
+      <c r="H6" s="15"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="84">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="R6" s="95"/>
-      <c r="S6" s="66" t="s">
-        <v>38</v>
+      <c r="R6" s="94"/>
+      <c r="S6" s="65" t="s">
+        <v>36</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>22</v>
@@ -3874,1154 +4070,1246 @@
       <c r="U6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="66">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="W6" s="63"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q7" s="108">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q7" s="107">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="R7" s="95"/>
-      <c r="S7" s="66" t="s">
-        <v>212</v>
+      <c r="R7" s="94"/>
+      <c r="S7" s="65" t="s">
+        <v>209</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="V7" s="67">
+        <v>236</v>
+      </c>
+      <c r="V7" s="66">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="W7" s="63"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="W7" s="62"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="109">
+      <c r="Q8" s="108">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="R8" s="95"/>
-      <c r="S8" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="53" t="s">
+      <c r="R8" s="94"/>
+      <c r="S8" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="52" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="67">
+        <v>38</v>
+      </c>
+      <c r="V8" s="66">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="W8" s="63"/>
-      <c r="X8" s="16"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="15"/>
       <c r="Y8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="16"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="13">
-        <v>10.5</v>
-      </c>
-      <c r="D9" s="16">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15">
         <v>7</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q9" s="115">
+      <c r="F9" s="24"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="113" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="114">
         <v>5</v>
       </c>
-      <c r="R9" s="95"/>
-      <c r="S9" s="66" t="s">
-        <v>45</v>
+      <c r="R9" s="94"/>
+      <c r="S9" s="65" t="s">
+        <v>43</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="67">
+        <v>38</v>
+      </c>
+      <c r="V9" s="66">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="W9" s="63"/>
-      <c r="X9" s="16"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="15"/>
       <c r="Y9" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z9" s="11">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>53</v>
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="13">
         <v>6</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="97">
+      <c r="L10" s="20"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="96">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="R10" s="95">
+      <c r="R10" s="94">
         <f>$P$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="62"/>
-      <c r="V10" s="69">
+      <c r="S10" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="61"/>
+      <c r="V10" s="68">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="W10" s="63"/>
-      <c r="X10" s="16"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="15"/>
       <c r="Y10" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z10" s="11">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>53</v>
+    <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="13">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="D11" s="15">
         <v>7</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="98">
+      <c r="L11" s="20"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="97">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="R11" s="95"/>
+      <c r="R11" s="94"/>
       <c r="S11" s="118" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T11" s="124"/>
       <c r="U11" s="124"/>
       <c r="V11" s="125"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z11" s="11">
         <f>Q2*4</f>
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13">
+    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="47">
         <v>10.5</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="22">
         <v>7</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q12" s="117">
+      <c r="L12" s="20"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q12" s="116">
         <f>ROUNDUP((Q7+Q5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="R12" s="95"/>
-      <c r="S12" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="94"/>
+      <c r="S12" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="V12" s="65">
+      <c r="U12" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="64">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="W12" s="66"/>
-      <c r="X12" s="16"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="15"/>
       <c r="Y12" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Z12" s="11">
         <f>Z11-Z10</f>
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>48</v>
-      </c>
+    <row r="13" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="48">
-        <v>10.5</v>
-      </c>
-      <c r="D13" s="23">
-        <v>7</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="20"/>
+        <f>SUM(C8:C12)</f>
+        <v>43.5</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="S13" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="50"/>
-      <c r="V13" s="67">
+      <c r="L13" s="20"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="S13" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="49"/>
+      <c r="V13" s="66">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="W13" s="63"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="116" t="s">
-        <v>214</v>
+      <c r="W13" s="62"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="115" t="s">
+        <v>211</v>
       </c>
       <c r="Z13" s="11" t="str">
         <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="49">
-        <f>SUM(C9:C13)</f>
-        <v>43.5</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="20"/>
+    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="15"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="16"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="16"/>
-      <c r="S14" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="50"/>
-      <c r="V14" s="67">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="S14" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="49"/>
+      <c r="V14" s="66">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="W14" s="63"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="16"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="20"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="16"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="122"/>
-      <c r="Q15" s="16"/>
-      <c r="S15" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="V15" s="69">
+      <c r="Q15" s="15"/>
+      <c r="S15" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="V15" s="68">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="W15" s="66"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="20"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="43">
+        <f>CharacterSheet!B15</f>
+        <v>275</v>
+      </c>
+      <c r="C16" s="44">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="39">
+        <f>B16-C16</f>
+        <v>275</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="16"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="123"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="77"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="76"/>
       <c r="S16" s="118" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T16" s="119"/>
       <c r="U16" s="119"/>
       <c r="V16" s="120"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="16"/>
+      <c r="X16" s="15"/>
       <c r="Y16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z16" s="16"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="44">
-        <f>CharacterSheet!B15</f>
-        <v>275</v>
-      </c>
-      <c r="C17" s="45">
+        <v>69</v>
+      </c>
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="57">
+        <f>CharacterSheet!B16</f>
+        <v>12</v>
+      </c>
+      <c r="C17" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D17" s="40">
-        <f>B17-C17</f>
-        <v>275</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="14">
+        <f>B17+C17</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="37">
+      <c r="L17" s="20"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="36">
         <v>0</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="S17" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="U17" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="V17" s="65">
+      <c r="Q17" s="15"/>
+      <c r="S17" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="T17" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="V17" s="64">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="W17" s="66"/>
-      <c r="X17" s="16"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB17" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+    </row>
+    <row r="18" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="58">
-        <f>CharacterSheet!B16</f>
-        <v>12</v>
-      </c>
-      <c r="C18" s="45">
+      <c r="B18" s="41">
+        <f>CharacterSheet!B17</f>
+        <v>55</v>
+      </c>
+      <c r="C18" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="39">
         <f>B18+C18</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f>IF(D18=0,"Verkrüppelt",IF(D18&lt;=B18*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="S18" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" s="54" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="S18" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="U18" s="54"/>
-      <c r="V18" s="67">
+      <c r="T18" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="53"/>
+      <c r="V18" s="66">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="W18" s="63"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z18" s="16">
+      <c r="W18" s="62"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z18" s="15">
         <v>3</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AA18" s="15">
         <v>5</v>
       </c>
-      <c r="AB18" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="42">
-        <f>CharacterSheet!B17</f>
-        <v>55</v>
-      </c>
-      <c r="C19" s="45">
+      <c r="AB18" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="39">
+        <f>CharacterSheet!B18</f>
+        <v>192.5</v>
+      </c>
+      <c r="C19" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="39">
         <f>B19+C19</f>
-        <v>55</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+        <v>192.5</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f t="shared" ref="E19:E23" si="0">IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="S19" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="T19" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="U19" s="54"/>
-      <c r="V19" s="67">
+      <c r="S19" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="U19" s="53"/>
+      <c r="V19" s="66">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="W19" s="63"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z19" s="16">
+      <c r="W19" s="62"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z19" s="15">
         <v>4</v>
       </c>
-      <c r="AA19" s="16">
+      <c r="AA19" s="15">
         <v>2</v>
       </c>
-      <c r="AB19" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="40">
-        <f>CharacterSheet!B18</f>
-        <v>192.5</v>
-      </c>
-      <c r="C20" s="45">
+      <c r="AB19" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="39">
+        <f>CharacterSheet!B19</f>
+        <v>55</v>
+      </c>
+      <c r="C20" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D20" s="40">
-        <f>B20+C20</f>
-        <v>192.5</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="D20" s="39">
+        <f t="shared" ref="D20:D23" si="1">B20+C20</f>
+        <v>55</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="S20" s="66" t="s">
-        <v>84</v>
+      <c r="S20" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="V20" s="67">
+        <v>83</v>
+      </c>
+      <c r="V20" s="66">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="W20" s="63"/>
-      <c r="X20" s="16"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="40">
-        <f>CharacterSheet!B19</f>
-        <v>110</v>
-      </c>
-      <c r="C21" s="45">
+        <v>90</v>
+      </c>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="39">
+        <f>CharacterSheet!B20</f>
+        <v>55</v>
+      </c>
+      <c r="C21" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D21" s="40">
-        <f t="shared" ref="D21:D22" si="0">B21+C21</f>
-        <v>110</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="S21" s="66" t="s">
-        <v>91</v>
+      <c r="D21" s="39">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="18"/>
+      <c r="S21" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="V21" s="67">
+        <v>236</v>
+      </c>
+      <c r="V21" s="66">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="W21" s="63"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="40">
-        <f>CharacterSheet!B20</f>
-        <v>137.5</v>
-      </c>
-      <c r="C22" s="45">
+      <c r="W21" s="62"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="39">
+        <f>CharacterSheet!B21</f>
+        <v>68.75</v>
+      </c>
+      <c r="C22" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="39">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+      <c r="E22" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="E22" s="16" t="str">
-        <f>IF(D18&lt;4,"Debuff","")</f>
         <v/>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="S22" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="T22" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="U22" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="V22" s="69">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q22" s="20"/>
+      <c r="S22" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="T22" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="U22" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="V22" s="68">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="W22" s="66"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="E23" s="16" t="str">
-        <f>IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
+      <c r="W22" s="65"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="39">
+        <f>CharacterSheet!B22</f>
+        <v>68.75</v>
+      </c>
+      <c r="C23" s="44">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+      <c r="E23" s="15" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="77"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="76"/>
       <c r="S23" s="118" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T23" s="119"/>
       <c r="U23" s="119"/>
       <c r="V23" s="120"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="E24" s="16" t="str">
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+    </row>
+    <row r="24" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="15" t="str">
         <f>IF(D20=0,"Verkrüppelt",IF(D20&lt;=B20*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="S24" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="T24" s="72" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="S24" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="106"/>
-      <c r="V24" s="65">
+      <c r="U24" s="105"/>
+      <c r="V24" s="64">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="W24" s="66"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
-      <c r="E25" s="16" t="str">
+      <c r="W24" s="65"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+    </row>
+    <row r="25" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="132" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="129"/>
+      <c r="E25" s="15" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="S25" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" s="71" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="S25" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="T25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="105"/>
-      <c r="V25" s="69">
+      <c r="U25" s="104"/>
+      <c r="V25" s="68">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="W25" s="66"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="16"/>
-      <c r="E26" s="16" t="str">
-        <f>IF(D22=0,"Verkrüppelt",IF(D22&lt;=B22*0.2,"Verstümmelt",""))</f>
-        <v/>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="77"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+    </row>
+    <row r="26" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="131">
+        <v>7</v>
+      </c>
+      <c r="D26" s="129"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="76"/>
       <c r="S26" s="118" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T26" s="119"/>
       <c r="U26" s="119"/>
       <c r="V26" s="120"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="S27" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="T27" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="U27" s="74"/>
-      <c r="V27" s="65">
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="130">
+        <v>7</v>
+      </c>
+      <c r="D27" s="129"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="S27" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="U27" s="73"/>
+      <c r="V27" s="64">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="W27" s="66"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="S28" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="T28" s="51" t="s">
-        <v>92</v>
+      <c r="W27" s="65"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="130">
+        <v>7</v>
+      </c>
+      <c r="D28" s="129"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="S28" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" s="50" t="s">
+        <v>89</v>
       </c>
       <c r="U28" s="14"/>
-      <c r="V28" s="67">
+      <c r="V28" s="66">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="W28" s="63"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="S29" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="T29" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="U29" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="V29" s="69">
+      <c r="W28" s="62"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+    </row>
+    <row r="29" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="129"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="S29" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="T29" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="U29" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="V29" s="68">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="W29" s="66"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="77"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+    </row>
+    <row r="30" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="129"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="76"/>
       <c r="S30" s="118" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T30" s="119"/>
       <c r="U30" s="119"/>
       <c r="V30" s="120"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="S31" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="T31" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="U31" s="75"/>
-      <c r="V31" s="65">
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="129"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="S31" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="T31" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="U31" s="74"/>
+      <c r="V31" s="64">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="W31" s="63"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="S32" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="T32" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="U32" s="52"/>
-      <c r="V32" s="67">
+      <c r="W31" s="62"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="129"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="S32" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="T32" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="U32" s="51"/>
+      <c r="V32" s="66">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="W32" s="63"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-    </row>
-    <row r="33" spans="16:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="S33" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="T33" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="U33" s="76"/>
-      <c r="V33" s="69">
+      <c r="W32" s="62"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+    </row>
+    <row r="33" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="129"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="S33" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="T33" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="U33" s="75"/>
+      <c r="V33" s="68">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="W33" s="63"/>
+      <c r="W33" s="62"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5034,363 +5322,363 @@
     <mergeCell ref="S23:V23"/>
   </mergeCells>
   <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="225" priority="113" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="231" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="114" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="230" priority="114" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="115" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="229" priority="115" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="116" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="228" priority="116" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="117" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="227" priority="117" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="118" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="226" priority="118" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="219" priority="112" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="218" priority="111" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="111" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="223" priority="105" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="222" priority="106" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="221" priority="107" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="220" priority="108" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="219" priority="109" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="218" priority="110" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="214" priority="102" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="213" priority="103" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="212" priority="104" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="209" priority="95" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="208" priority="96" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="206" priority="98" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="205" priority="87" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="204" priority="88" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="203" priority="89" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="202" priority="90" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="201" priority="91" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="200" priority="92" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="199" priority="81" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="198" priority="82" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="197" priority="83" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="196" priority="84" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="195" priority="85" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="194" priority="86" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="193" priority="69" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="192" priority="70" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="191" priority="71" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="190" priority="72" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="189" priority="73" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="188" priority="74" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="187" priority="63" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="186" priority="64" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="185" priority="65" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="184" priority="66" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="183" priority="67" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="182" priority="68" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="181" priority="51" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="180" priority="52" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="179" priority="53" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="178" priority="54" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="177" priority="55" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="176" priority="56" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="175" priority="57" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="174" priority="58" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="172" priority="60" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="170" priority="62" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="169" priority="45" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="168" priority="46" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="166" priority="48" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="163" priority="39" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="162" priority="40" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="160" priority="42" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="159" priority="43" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="158" priority="44" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="156" priority="34" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="154" priority="36" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="152" priority="38" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="148" priority="30" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="146" priority="32" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="144" priority="22" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="138" priority="16" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="136" priority="18" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="134" priority="20" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="132" priority="10" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="131" priority="11" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="130" priority="12" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="129" priority="13" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="128" priority="14" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Leicht">
+    <cfRule type="containsText" dxfId="126" priority="6" operator="containsText" text="Leicht">
       <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Schwer">
+    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Schwer">
       <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5404,21 +5692,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E26">
-    <cfRule type="containsText" dxfId="118" priority="4" operator="containsText" text="Debuff">
-      <formula>NOT(ISERROR(SEARCH("Debuff",E22)))</formula>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="containsText" dxfId="124" priority="4" operator="containsText" text="Debuff">
+      <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E26">
-    <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="Verstümmelt">
-      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Verkrüppelt">
-      <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E23)))</formula>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="containsText" dxfId="123" priority="2" operator="containsText" text="Verstümmelt">
+      <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="Verkrüppelt">
+      <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Inst">
+    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5431,244 +5719,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3873B7C-30AB-4500-9500-D99D9D1729B3}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" customWidth="1"/>
+    <col min="5" max="5" width="6.578125" customWidth="1"/>
+    <col min="6" max="6" width="6.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="16">
+        <v>107</v>
+      </c>
+      <c r="B1" s="15">
         <v>30000</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="16">
+        <v>108</v>
+      </c>
+      <c r="E1" s="15">
         <f>13490-E2+E3</f>
         <v>28290</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="16">
+        <v>109</v>
+      </c>
+      <c r="B2" s="15">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="16">
+        <v>110</v>
+      </c>
+      <c r="E2" s="15">
         <f>200</f>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="16">
+        <v>87</v>
+      </c>
+      <c r="B3" s="15">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="16">
+        <v>111</v>
+      </c>
+      <c r="E3" s="15">
         <f>15000</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B7" s="15">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="15">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="32" t="s">
+      <c r="B8" s="15">
+        <v>2250</v>
+      </c>
+      <c r="C8" s="15">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="15">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15">
         <v>3</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="16">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="16">
-        <v>30</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="16">
-        <v>2250</v>
-      </c>
-      <c r="C8" s="16">
-        <v>12</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="16">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="16">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <f>E10*1000</f>
         <v>2000</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>25</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f>0.5*E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>2</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>122</v>
+      <c r="F10" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="32" t="s">
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>117</v>
+      <c r="F14" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="16">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="15">
         <v>2000</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>6</v>
       </c>
       <c r="D15" s="13">
         <v>1.25</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="101" t="s">
-        <v>124</v>
+      <c r="G15" s="100" t="s">
+        <v>121</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="15">
         <v>2000</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>6</v>
       </c>
       <c r="D16" s="13">
         <v>1.25</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="7">
         <f>SUM(C15:C19)</f>
         <v>43.5</v>
@@ -5676,60 +5964,60 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="16">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="15">
         <v>3000</v>
       </c>
       <c r="C17" s="13">
         <v>10.5</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>3</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="16">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="15">
         <v>3000</v>
       </c>
       <c r="C18" s="13">
         <v>10.5</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>3</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31" t="s">
-        <v>129</v>
+      <c r="E18" s="15"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="16">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="15">
         <v>3000</v>
       </c>
       <c r="C19" s="13">
         <v>10.5</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>3</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7">
         <f>SUM(D8:D115)</f>
@@ -5738,35 +6026,35 @@
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31" t="s">
-        <v>131</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="12"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7">
@@ -5779,63 +6067,63 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="32" t="s">
+    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>117</v>
+      <c r="F26" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="12"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -5843,18 +6131,18 @@
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="16">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="15">
         <f>200*E28</f>
         <v>400</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="C28" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="15">
         <f>0.5*E28</f>
         <v>1</v>
       </c>
@@ -5866,18 +6154,18 @@
       <c r="H28" s="7"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="16">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="15">
         <f>420*E29</f>
         <v>1260</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="C29" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="15">
         <f>0.5*E29</f>
         <v>1.5</v>
       </c>
@@ -5889,61 +6177,61 @@
       <c r="H29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="15">
+        <v>100</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="16">
-        <v>100</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>500</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15">
         <v>1</v>
       </c>
     </row>
@@ -5958,284 +6246,284 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="36" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="B2" s="15">
+        <v>300</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="E2" s="15">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="G2" s="15">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="16">
-        <v>300</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="15">
+        <v>200</v>
+      </c>
+      <c r="C3" s="15">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="15">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="15">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="15">
+        <v>50</v>
+      </c>
+      <c r="C4" s="15">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="16">
+      <c r="I4" s="15">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="15">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="15">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="15">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="16">
+      <c r="H6" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="15">
+        <v>4</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="15">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="16">
-        <v>200</v>
-      </c>
-      <c r="C3" s="16">
-        <v>7</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="16">
-        <v>5</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="H7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="15">
         <v>3</v>
       </c>
-      <c r="H3" s="16">
+      <c r="J7" s="15">
         <v>0</v>
       </c>
-      <c r="I3" s="16">
+      <c r="K7" s="15">
         <v>0</v>
       </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="16">
-        <v>50</v>
-      </c>
-      <c r="C4" s="16">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="16">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="16">
-        <v>3</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="16">
-        <v>50</v>
-      </c>
-      <c r="C5" s="16">
-        <v>10</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="16">
-        <v>50</v>
-      </c>
-      <c r="C6" s="16">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="16">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="16">
-        <v>4</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="16">
-        <v>4</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="16">
-        <v>50</v>
-      </c>
-      <c r="C7" s="16">
-        <v>10</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="16">
-        <v>3</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6247,1205 +6535,1215 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.41796875" customWidth="1"/>
+    <col min="3" max="3" width="3.26171875" customWidth="1"/>
+    <col min="4" max="4" width="2.83984375" customWidth="1"/>
+    <col min="5" max="5" width="19.578125" customWidth="1"/>
+    <col min="6" max="6" width="4.68359375" customWidth="1"/>
+    <col min="7" max="7" width="5.41796875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.26171875" customWidth="1"/>
+    <col min="9" max="9" width="6.68359375" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="E1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="I1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="M1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15">
         <f>B4+B7+B8+B9</f>
         <v>34</v>
       </c>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="92">
+      <c r="B2" s="91">
         <v>12</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>-4</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>10</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>-9</v>
       </c>
-      <c r="I2" s="89">
+      <c r="I2" s="88">
         <v>29</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
-        <v>16</v>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="79">
         <v>12</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>-2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>10</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="7">
         <v>-10</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="89">
         <v>30</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="16">
+      <c r="L3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="15">
         <v>3</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <v>5</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>83</v>
+      <c r="O3" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="92">
         <v>12</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>-4</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="90">
+      <c r="I4" s="89">
         <v>20</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="16">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="15">
         <v>4</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>2</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>88</v>
+      <c r="O4" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="93">
         <v>13</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>10</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>38</v>
+      <c r="E5" s="65" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>-10</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="89">
         <v>30</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="84">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
+        <v>10</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="89">
+        <v>20</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="86">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="85">
+      <c r="F7" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="89">
+        <v>20</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="95">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
+        <v>-8</v>
+      </c>
+      <c r="D8" s="15">
         <v>10</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
-        <v>10</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="90">
-        <v>20</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="87">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16">
-        <v>-4</v>
-      </c>
-      <c r="D7" s="16">
-        <v>10</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="90">
-        <v>20</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="96">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
-        <v>-8</v>
-      </c>
-      <c r="D8" s="16">
-        <v>10</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>45</v>
+      <c r="E8" s="65" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="67" t="s">
-        <v>40</v>
+      <c r="G8" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="90">
+      <c r="I8" s="89">
         <v>20</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="111" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="96">
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="95">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="79"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="78"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="91">
+      <c r="I9" s="90">
         <v>20</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="103">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="102">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
         <v>18</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="65" t="s">
-        <v>40</v>
+      <c r="G10" s="64" t="s">
+        <v>38</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="89">
+      <c r="I10" s="88">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="102">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="101">
         <f>B5-Inventar!H22</f>
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="80"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="79"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="90">
+      <c r="I11" s="89">
         <v>24</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="80"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="79"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="90">
+      <c r="I12" s="89">
         <v>20</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>239</v>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>236</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="91">
+      <c r="I13" s="90">
         <v>20</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>71</v>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="89">
+      <c r="I14" s="88">
         <v>20</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>-3</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="54" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="F15" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="80"/>
       <c r="H15" s="7">
         <v>-15</v>
       </c>
-      <c r="I15" s="90">
+      <c r="I15" s="89">
         <v>35</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="81"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="80"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="90">
+      <c r="I16" s="89">
         <v>20</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="41">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="40">
         <f>CharacterSheet!$B$15*0.2</f>
         <v>55</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="66" t="s">
-        <v>84</v>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="90">
+      <c r="I17" s="89">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="40">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="39">
         <f>CharacterSheet!$B$15*0.7</f>
         <v>192.5</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="66" t="s">
-        <v>91</v>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>239</v>
+        <v>89</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>236</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="89">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="40">
-        <f>CharacterSheet!$B$15*0.4</f>
-        <v>110</v>
-      </c>
-      <c r="C19" s="16">
+    <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="39">
+        <f>CharacterSheet!$B$15*0.2</f>
+        <v>55</v>
+      </c>
+      <c r="C19" s="15">
         <v>25</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="82" t="s">
-        <v>173</v>
+      <c r="D19" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="91">
+      <c r="I19" s="90">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="40">
-        <f>CharacterSheet!$B$15*0.5</f>
-        <v>137.5</v>
-      </c>
-      <c r="C20" s="16">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="39">
+        <f>CharacterSheet!$B$15*0.2</f>
+        <v>55</v>
+      </c>
+      <c r="C20" s="15">
         <f>C19+(SUM(C2:C8)+C15+C16)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="72" t="s">
+      <c r="D20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="83"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="89">
+      <c r="I20" s="88">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="68" t="s">
+    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="39">
+        <f>CharacterSheet!$B$15*0.25</f>
+        <v>68.75</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="81"/>
+      <c r="H21" s="37">
+        <v>-8</v>
+      </c>
+      <c r="I21" s="90">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="39">
+        <f>CharacterSheet!$B$15*0.25</f>
+        <v>68.75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="38">
-        <v>-8</v>
-      </c>
-      <c r="I21" s="91">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="89">
+      <c r="F23" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="84"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="89">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="66" t="s">
+    <row r="24" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="90">
+      <c r="F25" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="85"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="88">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="68" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="86"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="91">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="90">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" s="88"/>
-      <c r="H27" s="23">
+      <c r="F27" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="87"/>
+      <c r="H27" s="22">
         <v>-15</v>
       </c>
-      <c r="I27" s="91">
+      <c r="I27" s="90">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="H30" s="16">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="H30" s="15">
         <f>SUM(H2:H28)</f>
         <v>-75</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:G4 F6:G6">
-    <cfRule type="containsText" dxfId="115" priority="110" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="114" priority="110" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="111" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="113" priority="111" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="112" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="112" priority="112" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="113" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="111" priority="113" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="110" priority="114" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:G5">
-    <cfRule type="containsText" dxfId="109" priority="104" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="108" priority="104" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="105" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="106" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="109" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="102" priority="98" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="101" priority="99" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="100" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="100" priority="100" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="101" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8">
-    <cfRule type="containsText" dxfId="97" priority="92" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="96" priority="92" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="93" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="94" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="97" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9">
-    <cfRule type="containsText" dxfId="91" priority="86" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="90" priority="86" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2">
-    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="84" priority="80" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="81" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="82" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:G10">
-    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="78" priority="74" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="75" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="76" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G11">
-    <cfRule type="containsText" dxfId="73" priority="68" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="72" priority="68" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="69" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G12">
-    <cfRule type="containsText" dxfId="67" priority="62" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="63" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13">
-    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="60" priority="56" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G14">
-    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:G15">
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="43" priority="49" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G18">
-    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:G19">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G21">
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G23">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G27">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Phy">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Inst">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7459,646 +7757,640 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="M21" sqref="M21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.15625" customWidth="1"/>
+    <col min="9" max="9" width="7.41796875" customWidth="1"/>
+    <col min="11" max="11" width="12.83984375" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" customWidth="1"/>
+    <col min="13" max="13" width="8.41796875" customWidth="1"/>
+    <col min="15" max="15" width="3.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="I2" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="J2" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="112" t="s">
+      <c r="M2" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="N2" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="113" t="s">
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I4" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="16">
+      <c r="J4" s="15">
+        <v>10</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="15">
+        <v>10</v>
+      </c>
+      <c r="K5" s="15">
+        <v>2</v>
+      </c>
+      <c r="L5" s="15">
+        <v>12</v>
+      </c>
+      <c r="M5" s="15">
+        <v>2</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="15">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="15">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="15">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="15">
+        <v>8</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="15">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="15">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19">
+        <v>6</v>
+      </c>
+      <c r="F17" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="15">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="19">
+        <v>7</v>
+      </c>
+      <c r="F18" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="19">
+        <v>9</v>
+      </c>
+      <c r="F20" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="19">
+        <v>10</v>
+      </c>
+      <c r="F21" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="19">
+        <v>11</v>
+      </c>
+      <c r="F22" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="16">
-        <v>10</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="L4" s="16">
-        <v>2</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="16">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="19">
+        <v>12</v>
+      </c>
+      <c r="F23" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J5" s="16">
-        <v>10</v>
-      </c>
-      <c r="K5" s="16">
-        <v>2</v>
-      </c>
-      <c r="L5" s="16">
-        <v>12</v>
-      </c>
-      <c r="M5" s="16">
-        <v>2</v>
-      </c>
-      <c r="N5" s="16" t="s">
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="19">
+        <v>13</v>
+      </c>
+      <c r="F24" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="B25" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="19">
+        <v>14</v>
+      </c>
+      <c r="F25" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="16">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="B26" s="15">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="19">
+        <v>15</v>
+      </c>
+      <c r="F26" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="16">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="16">
-        <v>8</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="16">
-        <v>10</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="16">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="21">
-        <v>2</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="16">
-        <v>2</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="16">
-        <v>4</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="16">
-        <v>6</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20">
-        <v>5</v>
-      </c>
-      <c r="F17" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="16">
-        <v>8</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="20">
-        <v>6</v>
-      </c>
-      <c r="F18" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="20">
-        <v>7</v>
-      </c>
-      <c r="F19" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="20">
-        <v>8</v>
-      </c>
-      <c r="F20" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="20">
-        <v>9</v>
-      </c>
-      <c r="F21" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="16">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="20">
-        <v>10</v>
-      </c>
-      <c r="F22" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="16">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="20">
-        <v>11</v>
-      </c>
-      <c r="F23" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="16">
-        <v>3</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="20">
-        <v>12</v>
-      </c>
-      <c r="F24" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="16">
-        <v>4</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="20">
-        <v>13</v>
-      </c>
-      <c r="F25" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="16">
-        <v>5</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="20">
-        <v>14</v>
-      </c>
-      <c r="F26" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="16">
-        <v>6</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="20">
-        <v>15</v>
-      </c>
-      <c r="F27" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="19">
+        <v>16</v>
+      </c>
+      <c r="F27" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="20">
-        <v>16</v>
-      </c>
-      <c r="F28" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="19">
+        <v>17</v>
+      </c>
+      <c r="F28" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="20">
-        <v>17</v>
-      </c>
-      <c r="F29" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="20">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="19">
         <v>18</v>
       </c>
-      <c r="F30" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="20">
+      <c r="F29" s="20">
         <v>19</v>
       </c>
-      <c r="F31" s="21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="22">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="19">
+        <v>19</v>
+      </c>
+      <c r="F30" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="21">
         <v>20</v>
       </c>
-      <c r="F32" s="24">
-        <v>15</v>
-      </c>
+      <c r="F31" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8113,14 +8405,14 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="127.42578125" customWidth="1"/>
+    <col min="1" max="1" width="127.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>211</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="32" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8130,32 +8422,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="117" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="117" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8171,506 +8469,550 @@
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="E2" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="15">
+        <f>[1]CharacterSheet!B17</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="15">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="str">
+      <c r="C3" s="15" t="str">
         <f>CharacterSheet!E3</f>
         <v>Armed</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="E3" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="15">
+        <f>[1]CharacterSheet!B18</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="15">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="15" t="str">
         <f>CharacterSheet!E4</f>
         <v>Unarmed</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="E4" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="15">
+        <f>[1]CharacterSheet!B19</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" s="15" t="str">
         <f>CharacterSheet!E5</f>
         <v>Blocken</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="E5" s="117" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="15">
+        <f>[1]CharacterSheet!B20</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="15">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" s="15" t="str">
         <f>CharacterSheet!E6</f>
         <v>Artillerie</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="E6" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="15">
+        <f>[1]CharacterSheet!B21</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="15" t="str">
         <f>CharacterSheet!E7</f>
         <v>Ranged</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="str">
+      <c r="E7" s="117" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="15">
+        <f>[1]CharacterSheet!B22</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="15" t="str">
         <f>CharacterSheet!E8</f>
         <v>throwing</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="str">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <f>CharacterSheet!B9</f>
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" s="15" t="str">
         <f>CharacterSheet!E9</f>
         <v>Dodge</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="16">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="15" t="str">
         <f>CharacterSheet!E10</f>
         <v>Acrobatics</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="16">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="15" t="str">
         <f>CharacterSheet!E11</f>
         <v>Schleichen</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="16">
+        <v>91</v>
+      </c>
+      <c r="B12" s="15">
         <f>CharacterSheet!B15</f>
         <v>275</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="15" t="str">
         <f>CharacterSheet!E12</f>
         <v>Taschendiebstahl</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="16">
+        <v>93</v>
+      </c>
+      <c r="B13" s="15">
         <f>CharacterSheet!B16</f>
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="15" t="str">
         <f>CharacterSheet!E13</f>
         <v>Schlossknacken</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B14" s="13">
-        <f>Status!C14</f>
+        <f>Status!C13</f>
         <v>43.5</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="15" t="str">
         <f>CharacterSheet!E14</f>
         <v>Lying</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
-        <f>Status!A9</f>
+        <f>Status!A8</f>
         <v>Helm</v>
       </c>
       <c r="B15" s="13">
-        <f>Status!C9</f>
+        <f>Status!C8</f>
         <v>10.5</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" s="15" t="str">
         <f>CharacterSheet!E15</f>
         <v>Persuation</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="str">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="str">
+        <f>Status!A9</f>
+        <v>Brust</v>
+      </c>
+      <c r="B16" s="13">
+        <f>Status!C9</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>CharacterSheet!E16</f>
+        <v>Performance</v>
+      </c>
+      <c r="D16" s="15">
+        <f>CharacterSheet!I16</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15" t="str">
         <f>Status!A10</f>
-        <v>Brust</v>
-      </c>
-      <c r="B16" s="13">
+        <v>Arme</v>
+      </c>
+      <c r="B17" s="13">
         <f>Status!C10</f>
         <v>6</v>
       </c>
-      <c r="C16" s="16" t="str">
-        <f>CharacterSheet!E16</f>
-        <v>Performance</v>
-      </c>
-      <c r="D16" s="16">
-        <f>CharacterSheet!I16</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="str">
-        <f>Status!A11</f>
-        <v>Arme</v>
-      </c>
-      <c r="B17" s="13">
-        <f>Status!C11</f>
-        <v>6</v>
-      </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" s="15" t="str">
         <f>CharacterSheet!E17</f>
         <v>Feilschen</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="str">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="str">
+        <f>Status!A11</f>
+        <v>Gürtel</v>
+      </c>
+      <c r="B18" s="13">
+        <f>Status!C11</f>
+        <v>10.5</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>CharacterSheet!E18</f>
+        <v>Insight</v>
+      </c>
+      <c r="D18" s="15">
+        <f>CharacterSheet!I18</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="str">
         <f>Status!A12</f>
-        <v>Gürtel</v>
-      </c>
-      <c r="B18" s="13">
+        <v>Beine</v>
+      </c>
+      <c r="B19" s="13">
         <f>Status!C12</f>
         <v>10.5</v>
       </c>
-      <c r="C18" s="16" t="str">
-        <f>CharacterSheet!E18</f>
-        <v>Insight</v>
-      </c>
-      <c r="D18" s="16">
-        <f>CharacterSheet!I18</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
-        <f>Status!A13</f>
-        <v>Beine</v>
-      </c>
-      <c r="B19" s="13">
-        <f>Status!C13</f>
-        <v>10.5</v>
-      </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="15" t="str">
         <f>CharacterSheet!E19</f>
         <v>Intimidation</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B20">
         <f>Inventar!G22</f>
         <v>15.5</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" s="15" t="str">
         <f>CharacterSheet!E20</f>
         <v xml:space="preserve">Swimming </v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B21">
         <f>Inventar!G19</f>
         <v>19.5</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="15" t="str">
         <f>CharacterSheet!E21</f>
         <v>Running</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B22" t="str">
         <f>Status!Z13</f>
         <v>Leicht</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="15" t="str">
         <f>CharacterSheet!E22</f>
         <v>Handwerk</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B23">
         <f>Status!C2</f>
         <v>30</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" s="15" t="str">
         <f>CharacterSheet!E23</f>
         <v>Alchemie</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="16">
+        <v>217</v>
+      </c>
+      <c r="B24" s="15">
         <f>Status!C3</f>
         <v>12</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="15" t="str">
         <f>CharacterSheet!E24</f>
         <v>Vehicles</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="16">
+        <v>228</v>
+      </c>
+      <c r="B25" s="15">
         <f>Status!C4</f>
-        <v>15</v>
-      </c>
-      <c r="C25" s="16" t="str">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15" t="str">
         <f>CharacterSheet!E25</f>
         <v>Animal Handling</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" s="16">
-        <f>Status!C4</f>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="15">
+        <f>Status!C5</f>
         <v>15</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C26" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B27" t="str">
         <f>Status!B2</f>
         <v>Schwert</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="15" t="str">
         <f>CharacterSheet!E27</f>
         <v>Perception</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="16" t="str">
+        <v>219</v>
+      </c>
+      <c r="B28" s="15" t="str">
         <f>Status!B3</f>
         <v>Dolch</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>236</v>
+      <c r="C28" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="D28" t="str">
         <f>CharacterSheet!B1</f>
         <v>Mensch</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="16" t="str">
+        <v>230</v>
+      </c>
+      <c r="B29" s="15">
         <f>Status!B4</f>
-        <v>Schild</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>241</v>
+        <v>0</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B30">
         <f>Status!Q12</f>
         <v>13</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>240</v>
+      <c r="C30" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B31">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>11</v>
       </c>
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32" s="16">
+        <v>232</v>
+      </c>
+      <c r="B32" s="15">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B33">
         <f>CharacterSheet!B8+CharacterSheet!B9</f>

--- a/docs/Container/CCrand.xlsx
+++ b/docs/Container/CCrand.xlsx
@@ -5,25 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2912DC-E611-4D08-BA86-D34382C35192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354605A-30A5-4FB6-AC1D-B9F4D2F46FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{57D2AEFB-14FB-4D36-AF2A-9B9D3BD9BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
     <sheet name="Inventar" sheetId="4" r:id="rId2"/>
     <sheet name="Pflanzen" sheetId="12" r:id="rId3"/>
-    <sheet name="CharacterSheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Prices+Changelog" sheetId="2" r:id="rId5"/>
-    <sheet name="Backstory" sheetId="11" r:id="rId6"/>
-    <sheet name="Abfrage" sheetId="13" r:id="rId7"/>
+    <sheet name="Plötze" sheetId="14" r:id="rId4"/>
+    <sheet name="CharacterSheet" sheetId="1" r:id="rId5"/>
+    <sheet name="Prices+Changelog" sheetId="2" r:id="rId6"/>
+    <sheet name="Backstory" sheetId="11" r:id="rId7"/>
+    <sheet name="Abfrage" sheetId="13" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="336">
   <si>
     <t>Ausgerüstet:</t>
   </si>
@@ -182,9 +180,6 @@
     <t>Helm</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Würfel Toxi-Save</t>
   </si>
   <si>
@@ -698,12 +693,6 @@
     <t>Waffe2</t>
   </si>
   <si>
-    <t>Waffe1Typ</t>
-  </si>
-  <si>
-    <t>Waffe2Typ</t>
-  </si>
-  <si>
     <t>Initiative</t>
   </si>
   <si>
@@ -731,12 +720,6 @@
     <t>Waffe3</t>
   </si>
   <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Waffe3Typ</t>
-  </si>
-  <si>
     <t>Feilschenattr</t>
   </si>
   <si>
@@ -761,9 +744,6 @@
     <t>CritMargPos</t>
   </si>
   <si>
-    <t>Parthealth</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -800,26 +780,281 @@
     <t>Kaiserlich 8</t>
   </si>
   <si>
-    <t>Hautwaffe</t>
-  </si>
-  <si>
     <t>Waffe</t>
   </si>
   <si>
-    <t>Drittwaffe</t>
-  </si>
-  <si>
     <t>Holster</t>
   </si>
   <si>
     <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Instinkt</t>
+  </si>
+  <si>
+    <t>Fernwaffe (oder Drittwaffe)</t>
+  </si>
+  <si>
+    <t>ZustandWaffe1</t>
+  </si>
+  <si>
+    <t>ZustandWaffe2</t>
+  </si>
+  <si>
+    <t>ZustandWaffe3</t>
+  </si>
+  <si>
+    <t>ZustandSchild</t>
+  </si>
+  <si>
+    <t>TierWaffe1</t>
+  </si>
+  <si>
+    <t>TierWaffe2</t>
+  </si>
+  <si>
+    <t>TierWaffe3</t>
+  </si>
+  <si>
+    <t>TierSchild</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Leichter Schild</t>
+  </si>
+  <si>
+    <t>Ausrüstung</t>
+  </si>
+  <si>
+    <t>Werte</t>
+  </si>
+  <si>
+    <t>ZustandHelm</t>
+  </si>
+  <si>
+    <t>ZustandBrust</t>
+  </si>
+  <si>
+    <t>ZustandArme</t>
+  </si>
+  <si>
+    <t>ZustandGürtel</t>
+  </si>
+  <si>
+    <t>ZustandBeine</t>
+  </si>
+  <si>
+    <t>TierHelm</t>
+  </si>
+  <si>
+    <t>ArtHelm</t>
+  </si>
+  <si>
+    <t>TierBrust</t>
+  </si>
+  <si>
+    <t>ArtBrust</t>
+  </si>
+  <si>
+    <t>ArtArme</t>
+  </si>
+  <si>
+    <t>TierArme</t>
+  </si>
+  <si>
+    <t>TierGürtel</t>
+  </si>
+  <si>
+    <t>ArtGürtel</t>
+  </si>
+  <si>
+    <t>ArtBeine</t>
+  </si>
+  <si>
+    <t>TierBeine</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reittier</t>
+  </si>
+  <si>
+    <t>SchadenWaffe1</t>
+  </si>
+  <si>
+    <t>SchadenWaffe2</t>
+  </si>
+  <si>
+    <t>SchadenWaffe3</t>
+  </si>
+  <si>
+    <t>Schildwert</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>maxgewicht</t>
+  </si>
+  <si>
+    <t>MaxAusdauer</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+  </si>
+  <si>
+    <t>Vergiftung</t>
+  </si>
+  <si>
+    <t>Max Health Head</t>
+  </si>
+  <si>
+    <t>Max Health Torso</t>
+  </si>
+  <si>
+    <t>Max Health ArmR</t>
+  </si>
+  <si>
+    <t>Max Health ArmL</t>
+  </si>
+  <si>
+    <t>Max Health LegR</t>
+  </si>
+  <si>
+    <t>Max Health LegL</t>
+  </si>
+  <si>
+    <t>Hauptwaffe</t>
+  </si>
+  <si>
+    <t>Resistenzen</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Ausprägung</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>Loyalität</t>
+  </si>
+  <si>
+    <t>Progression</t>
+  </si>
+  <si>
+    <t>Fähigkeiten</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>Smo Blo</t>
+  </si>
+  <si>
+    <t>Belphegor</t>
+  </si>
+  <si>
+    <t>Taming Points</t>
+  </si>
+  <si>
+    <t>Reginald</t>
+  </si>
+  <si>
+    <t>Tiernatur</t>
+  </si>
+  <si>
+    <t>Plötze</t>
+  </si>
+  <si>
+    <t>Satteltaschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speer </t>
+  </si>
+  <si>
+    <t>Schaden*2 vom Reittier sonst immer ad Disatvantage</t>
+  </si>
+  <si>
+    <t>Rüstungen</t>
+  </si>
+  <si>
+    <t>Health +100</t>
+  </si>
+  <si>
+    <t>Heiltrank S3</t>
+  </si>
+  <si>
+    <t>Health +200</t>
+  </si>
+  <si>
+    <t>Ausdauertrank S2</t>
+  </si>
+  <si>
+    <t>Ausdauer +4</t>
+  </si>
+  <si>
+    <t>Ausdauertrank S3</t>
+  </si>
+  <si>
+    <t>Ausdauer +6</t>
+  </si>
+  <si>
+    <t>Sicht S4</t>
+  </si>
+  <si>
+    <t>Thermosicht</t>
+  </si>
+  <si>
+    <t>Nebelgranatika S4</t>
+  </si>
+  <si>
+    <t>15m keine sicht</t>
+  </si>
+  <si>
+    <t>Segen der Sienna S3</t>
+  </si>
+  <si>
+    <t>Schwarzes Blut</t>
+  </si>
+  <si>
+    <t>AgiBuff S4</t>
+  </si>
+  <si>
+    <t>+2 Agi</t>
+  </si>
+  <si>
+    <t>Licht des Allgotts</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Seile</t>
+  </si>
+  <si>
+    <t>Zelt</t>
+  </si>
+  <si>
+    <t>Sanity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,6 +1108,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -991,7 +1242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1491,12 +1742,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1627,6 +1902,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,21 +1964,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{D542633D-7DF4-465B-85AC-D052E1A8B816}"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="225">
     <dxf>
       <fill>
         <patternFill>
@@ -2525,48 +2841,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3338,11 +3612,6 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3405,64 +3674,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Status"/>
-      <sheetName val="Inventar"/>
-      <sheetName val="Pflanzen"/>
-      <sheetName val="CharacterSheet"/>
-      <sheetName val="Prices+Changelog"/>
-      <sheetName val="Backstory"/>
-      <sheetName val="Währung"/>
-      <sheetName val="Abfrage"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="17">
-          <cell r="B17">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3762,138 +3973,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B236B-B324-43E9-BA62-F221CE945E93}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="8.68359375" customWidth="1"/>
-    <col min="3" max="3" width="7.15625" customWidth="1"/>
+    <col min="3" max="3" width="7.68359375" customWidth="1"/>
     <col min="4" max="4" width="6.83984375" style="15" customWidth="1"/>
     <col min="5" max="5" width="4.15625" style="15" customWidth="1"/>
     <col min="6" max="6" width="3.83984375" customWidth="1"/>
-    <col min="7" max="7" width="1.68359375" customWidth="1"/>
-    <col min="8" max="8" width="4.15625" customWidth="1"/>
-    <col min="9" max="9" width="2.41796875" customWidth="1"/>
-    <col min="10" max="10" width="4.83984375" customWidth="1"/>
+    <col min="7" max="7" width="3.7890625" customWidth="1"/>
+    <col min="8" max="8" width="1.3671875" customWidth="1"/>
+    <col min="9" max="9" width="4.26171875" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
     <col min="11" max="11" width="2.41796875" customWidth="1"/>
-    <col min="12" max="12" width="4.68359375" customWidth="1"/>
-    <col min="13" max="13" width="1.83984375" customWidth="1"/>
-    <col min="14" max="14" width="3.68359375" customWidth="1"/>
-    <col min="15" max="15" width="4.15625" customWidth="1"/>
-    <col min="16" max="16" width="17.83984375" customWidth="1"/>
-    <col min="17" max="17" width="4.578125" customWidth="1"/>
-    <col min="18" max="18" width="8.26171875" style="55" customWidth="1"/>
-    <col min="19" max="19" width="15.68359375" customWidth="1"/>
-    <col min="20" max="20" width="4.83984375" customWidth="1"/>
-    <col min="21" max="21" width="6.15625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="5.578125" customWidth="1"/>
-    <col min="23" max="23" width="4.83984375" customWidth="1"/>
-    <col min="24" max="24" width="7.15625" customWidth="1"/>
-    <col min="26" max="26" width="6.83984375" customWidth="1"/>
-    <col min="27" max="27" width="9.68359375" customWidth="1"/>
+    <col min="12" max="12" width="2.9453125" customWidth="1"/>
+    <col min="13" max="13" width="4.47265625" customWidth="1"/>
+    <col min="14" max="14" width="1.41796875" customWidth="1"/>
+    <col min="15" max="15" width="3.3671875" customWidth="1"/>
+    <col min="16" max="16" width="3.89453125" customWidth="1"/>
+    <col min="17" max="17" width="18.1015625" customWidth="1"/>
+    <col min="18" max="18" width="3.7890625" style="55" customWidth="1"/>
+    <col min="19" max="19" width="5.15625" customWidth="1"/>
+    <col min="20" max="20" width="15.26171875" customWidth="1"/>
+    <col min="21" max="21" width="6.3125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="6.7890625" customWidth="1"/>
+    <col min="23" max="23" width="3.7890625" customWidth="1"/>
+    <col min="24" max="24" width="3.47265625" customWidth="1"/>
+    <col min="25" max="25" width="7.578125" customWidth="1"/>
+    <col min="26" max="26" width="11.578125" customWidth="1"/>
+    <col min="27" max="27" width="11.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="127" t="s">
+      <c r="B1" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="120" t="s">
+        <v>259</v>
+      </c>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="J1" s="139" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="AB1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="36" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="36">
-        <v>30</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D2" s="36">
+        <v>2</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="15"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="J2" s="140">
+        <v>100</v>
+      </c>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="91">
+      <c r="R2" s="91">
         <f>CharacterSheet!B2</f>
         <v>12</v>
       </c>
-      <c r="R2" s="109"/>
-      <c r="S2" s="118" t="s">
+      <c r="S2" s="109"/>
+      <c r="T2" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15" t="s">
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
@@ -3903,11 +4129,13 @@
       <c r="C3" s="11">
         <v>12</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="15"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -3915,129 +4143,136 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="79">
+      <c r="R3" s="79">
         <f>CharacterSheet!B3</f>
         <v>12</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="63" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="U3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="59" t="s">
+      <c r="V3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="64">
+      <c r="W3" s="64">
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="W3" s="62"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15" t="s">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="92">
+      <c r="R4" s="92">
         <f>CharacterSheet!B4</f>
         <v>12</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="94"/>
+      <c r="T4" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="U4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="V4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="66">
+      <c r="W4" s="66">
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="15"/>
+      <c r="X4" s="62"/>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="C5" s="11">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="15"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
-      <c r="P5" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q5" s="103">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="103">
         <f>CharacterSheet!B5</f>
         <v>13</v>
       </c>
-      <c r="R5" s="94"/>
-      <c r="S5" s="65" t="s">
+      <c r="S5" s="94"/>
+      <c r="T5" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="U5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="66">
+      <c r="V5" s="52"/>
+      <c r="W5" s="66">
         <f>CharacterSheet!I4</f>
         <v>20</v>
       </c>
-      <c r="W5" s="62"/>
-      <c r="X5" s="15"/>
+      <c r="X5" s="62"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+    </row>
+    <row r="6" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="7"/>
       <c r="B6" s="37"/>
       <c r="C6" s="7"/>
@@ -4045,41 +4280,42 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="15"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="65" t="s">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="84">
+      <c r="R6" s="84">
         <f>CharacterSheet!B6</f>
         <v>10</v>
       </c>
-      <c r="R6" s="94"/>
-      <c r="S6" s="65" t="s">
+      <c r="S6" s="94"/>
+      <c r="T6" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="V6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="66">
+      <c r="W6" s="66">
         <f>CharacterSheet!I5</f>
         <v>30</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="15"/>
+      <c r="X6" s="62"/>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+    </row>
+    <row r="7" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="45" t="s">
         <v>39</v>
       </c>
@@ -4092,49 +4328,53 @@
       <c r="D7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="45" t="s">
+        <v>259</v>
+      </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q7" s="107">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="R7" s="107">
         <f>CharacterSheet!B7</f>
         <v>12</v>
       </c>
-      <c r="R7" s="94"/>
-      <c r="S7" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="V7" s="66">
+      <c r="S7" s="94"/>
+      <c r="T7" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="W7" s="66">
         <f>CharacterSheet!I6</f>
         <v>20</v>
       </c>
-      <c r="W7" s="62"/>
-      <c r="X7" s="15"/>
+      <c r="X7" s="62"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA7" s="15"/>
+      <c r="AD7" s="15"/>
+    </row>
+    <row r="8" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="C8" s="13">
         <v>10.5</v>
@@ -4142,51 +4382,54 @@
       <c r="D8" s="15">
         <v>7</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="108">
+      <c r="R8" s="108">
         <f>CharacterSheet!B8</f>
         <v>5</v>
       </c>
-      <c r="R8" s="94"/>
-      <c r="S8" s="65" t="s">
+      <c r="S8" s="94"/>
+      <c r="T8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="52" t="s">
+      <c r="U8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="66">
+      <c r="W8" s="66">
         <f>CharacterSheet!I7</f>
         <v>20</v>
       </c>
-      <c r="W8" s="62"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="12" t="s">
+      <c r="X8" s="62"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Z8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA8" s="15"/>
+    </row>
+    <row r="9" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="C9" s="13">
         <v>6</v>
@@ -4194,52 +4437,56 @@
       <c r="D9" s="15">
         <v>7</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="113" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q9" s="114">
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="R9" s="114">
         <v>5</v>
       </c>
-      <c r="R9" s="94"/>
-      <c r="S9" s="65" t="s">
+      <c r="S9" s="94"/>
+      <c r="T9" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="66">
+      <c r="W9" s="66">
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="W9" s="62"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z9" s="11">
+      <c r="X9" s="62"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="11">
         <f>Inventar!$G$22</f>
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="13">
         <v>6</v>
@@ -4247,56 +4494,60 @@
       <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="96">
+      <c r="L10" s="7"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="96">
         <f>CharacterSheet!B10</f>
         <v>18</v>
       </c>
-      <c r="R10" s="94">
-        <f>$P$17*(-1)</f>
+      <c r="S10" s="94">
+        <f>$Q$17*(-1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="61" t="s">
+      <c r="T10" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="61"/>
-      <c r="V10" s="68">
+      <c r="V10" s="61"/>
+      <c r="W10" s="68">
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-      <c r="W10" s="62"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" s="11">
+      <c r="X10" s="62"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="11">
         <f>Inventar!$G$19</f>
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="C11" s="13">
         <v>10.5</v>
@@ -4304,46 +4555,50 @@
       <c r="D11" s="15">
         <v>7</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="7"/>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="97">
+      <c r="L11" s="7"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="97">
         <f>CharacterSheet!B11</f>
         <v>10</v>
       </c>
-      <c r="R11" s="94"/>
-      <c r="S11" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z11" s="11">
-        <f>Q2*4</f>
+      <c r="S11" s="94"/>
+      <c r="T11" s="144" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="11">
+        <f>R2*4</f>
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="C12" s="47">
         <v>10.5</v>
@@ -4351,167 +4606,177 @@
       <c r="D12" s="22">
         <v>7</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="7"/>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q12" s="116">
-        <f>ROUNDUP((Q7+Q5)/2,0)</f>
+      <c r="L12" s="7"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="R12" s="116">
+        <f>ROUNDUP((R7+R5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="T12" s="59" t="s">
+      <c r="S12" s="94"/>
+      <c r="T12" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="59" t="s">
+      <c r="V12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="V12" s="64">
+      <c r="W12" s="64">
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-      <c r="W12" s="65"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z12" s="11">
-        <f>Z11-Z10</f>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="11">
+        <f>AA11-AA10</f>
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="48">
         <f>SUM(C8:C12)</f>
         <v>43.5</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="15"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="S13" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="T13" s="49" t="s">
+      <c r="R13" s="15"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="U13" s="49"/>
-      <c r="V13" s="66">
+      <c r="V13" s="49"/>
+      <c r="W13" s="66">
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-      <c r="W13" s="62"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z13" s="11" t="str">
-        <f>IF(Z9&gt;30,"Schwer",IF(Z9&gt;18,"Mittel","Leicht"))</f>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA13" s="11" t="str">
+        <f>IF(AA9&gt;30,"Schwer",IF(AA9&gt;18,"Mittel","Leicht"))</f>
         <v>Leicht</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" ht="14.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="38"/>
       <c r="B14" s="37"/>
       <c r="C14" s="15"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="7"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="121" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="S14" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="T14" s="49" t="s">
+      <c r="U14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="49"/>
-      <c r="V14" s="66">
+      <c r="V14" s="49"/>
+      <c r="W14" s="66">
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-      <c r="W14" s="62"/>
-      <c r="X14" s="15"/>
+      <c r="X14" s="62"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="7"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="15"/>
-      <c r="S15" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="T15" s="61" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="V15" s="68">
+      <c r="V15" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="W15" s="68">
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-      <c r="W15" s="65"/>
-      <c r="X15" s="15"/>
+      <c r="X15" s="65"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AA15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="43">
         <f>CharacterSheet!B15</f>
@@ -4525,35 +4790,36 @@
         <f>B16-C16</f>
         <v>275</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="7"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L16" s="7"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="146"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA16" s="15"/>
+    </row>
+    <row r="17" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="57">
         <f>CharacterSheet!B16</f>
@@ -4567,51 +4833,53 @@
         <f>B17+C17</f>
         <v>12</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="7"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="36">
+      <c r="L17" s="7"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="36">
         <v>0</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="S17" s="63" t="s">
+      <c r="R17" s="15"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="T17" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="U17" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="V17" s="64">
+      <c r="V17" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="W17" s="64">
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-      <c r="W17" s="65"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="6" t="s">
+      <c r="X17" s="65"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Z17" s="10" t="s">
+      <c r="AB17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AC17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AB17" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="41">
         <f>CharacterSheet!B17</f>
@@ -4631,53 +4899,55 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="15"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="S18" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="T18" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="U18" s="53"/>
-      <c r="V18" s="66">
+      <c r="R18" s="15"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" s="53"/>
+      <c r="W18" s="66">
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-      <c r="W18" s="62"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15" t="s">
+      <c r="X18" s="62"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Z18" s="15">
-        <v>3</v>
-      </c>
-      <c r="AA18" s="15">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="39">
         <f>CharacterSheet!B18</f>
-        <v>192.5</v>
+        <v>193</v>
       </c>
       <c r="C19" s="44">
         <f>0</f>
@@ -4685,7 +4955,7 @@
       </c>
       <c r="D19" s="39">
         <f>B19+C19</f>
-        <v>192.5</v>
+        <v>193</v>
       </c>
       <c r="E19" s="15" t="str">
         <f t="shared" ref="E19:E23" si="0">IF(D19=0,"Verkrüppelt",IF(D19&lt;=B19*0.2,"Verstümmelt",""))</f>
@@ -4693,45 +4963,47 @@
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="7"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="7"/>
-      <c r="S19" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="T19" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="66">
+      <c r="R19" s="7"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="U19" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="53"/>
+      <c r="W19" s="66">
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-      <c r="W19" s="62"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15" t="s">
+      <c r="X19" s="62"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" s="15">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="15">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="20" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B20" s="39">
         <f>CharacterSheet!B19</f>
@@ -4751,41 +5023,43 @@
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="7"/>
-      <c r="S20" s="65" t="s">
+      <c r="R20" s="7"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="V20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="U20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="V20" s="66">
+      <c r="W20" s="66">
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-      <c r="W20" s="62"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z20" s="15"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC20" s="15"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="39" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B21" s="39">
         <f>CharacterSheet!B20</f>
@@ -4805,45 +5079,47 @@
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="P21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="18"/>
-      <c r="S21" s="65" t="s">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="V21" s="66">
+      <c r="V21" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="W21" s="66">
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-      <c r="W21" s="62"/>
-      <c r="X21" s="15"/>
+      <c r="X21" s="62"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC21" s="15"/>
+    </row>
+    <row r="22" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="39" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B22" s="39">
         <f>CharacterSheet!B21</f>
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="C22" s="44">
         <f>0</f>
@@ -4851,7 +5127,7 @@
       </c>
       <c r="D22" s="39">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="E22" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4859,47 +5135,49 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="20"/>
-      <c r="S22" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="T22" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="U22" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="V22" s="68">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="U22" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="V22" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="W22" s="68">
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-      <c r="W22" s="65"/>
-      <c r="X22" s="15"/>
+      <c r="X22" s="65"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
-    </row>
-    <row r="23" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC22" s="15"/>
+    </row>
+    <row r="23" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="39" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B23" s="39">
         <f>CharacterSheet!B22</f>
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="C23" s="44">
         <f>0</f>
@@ -4907,7 +5185,7 @@
       </c>
       <c r="D23" s="39">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>69</v>
       </c>
       <c r="E23" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4915,33 +5193,34 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" s="23"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="146"/>
+      <c r="X23" s="7"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
-    </row>
-    <row r="24" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC23" s="15"/>
+    </row>
+    <row r="24" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4951,127 +5230,138 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
-      <c r="S24" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="71" t="s">
+      <c r="R24" s="15"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="105"/>
-      <c r="V24" s="64">
+      <c r="V24" s="105"/>
+      <c r="W24" s="64">
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-      <c r="W24" s="65"/>
-      <c r="X24" s="15"/>
+      <c r="X24" s="65"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
-    </row>
-    <row r="25" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="132" t="s">
-        <v>255</v>
-      </c>
-      <c r="B25" s="133" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="134" t="s">
+      <c r="AC24" s="15"/>
+    </row>
+    <row r="25" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="129"/>
+      <c r="D25" s="126" t="s">
+        <v>285</v>
+      </c>
       <c r="E25" s="15" t="str">
         <f>IF(D21=0,"Verkrüppelt",IF(D21&lt;=B21*0.2,"Verstümmelt",""))</f>
         <v/>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="S25" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="T25" s="70" t="s">
+      <c r="R25" s="15"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="U25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="104"/>
-      <c r="V25" s="68">
+      <c r="V25" s="104"/>
+      <c r="W25" s="68">
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-      <c r="W25" s="65"/>
-      <c r="X25" s="15"/>
+      <c r="X25" s="65"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
-    </row>
-    <row r="26" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="131" t="s">
+      <c r="AC25" s="15"/>
+    </row>
+    <row r="26" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="131">
-        <v>7</v>
-      </c>
-      <c r="D26" s="129"/>
+      <c r="C26" s="123">
+        <v>10</v>
+      </c>
+      <c r="D26" s="123">
+        <v>1</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="7"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="130" t="s">
+      <c r="AC26" s="15"/>
+    </row>
+    <row r="27" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="130">
-        <v>7</v>
-      </c>
-      <c r="D27" s="129"/>
+      <c r="C27" s="122">
+        <v>5</v>
+      </c>
+      <c r="D27" s="122">
+        <v>1</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -5084,142 +5374,161 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="S27" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="T27" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="U27" s="73"/>
-      <c r="V27" s="64">
+      <c r="R27" s="15"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="U27" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="V27" s="73"/>
+      <c r="W27" s="64">
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-      <c r="W27" s="65"/>
-      <c r="X27" s="15"/>
+      <c r="X27" s="65"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="130" t="s">
+      <c r="AC27" s="15"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="130">
+      <c r="C28" s="122">
         <v>7</v>
       </c>
-      <c r="D28" s="129"/>
+      <c r="D28" s="122">
+        <v>1</v>
+      </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="I28" s="152" t="s">
+        <v>279</v>
+      </c>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="154"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="S28" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="T28" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="U28" s="14"/>
-      <c r="V28" s="66">
+      <c r="R28" s="15"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="V28" s="14"/>
+      <c r="W28" s="66">
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-      <c r="W28" s="62"/>
-      <c r="X28" s="15"/>
+      <c r="X28" s="62"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
-    </row>
-    <row r="29" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="130" t="s">
+      <c r="AC28" s="15"/>
+    </row>
+    <row r="29" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="129"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="141" t="s">
+        <v>311</v>
+      </c>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="143"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="S29" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="T29" s="60" t="s">
-        <v>89</v>
+      <c r="R29" s="15"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="67" t="s">
+        <v>102</v>
       </c>
       <c r="U29" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="V29" s="68">
+        <v>88</v>
+      </c>
+      <c r="V29" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="W29" s="68">
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-      <c r="W29" s="65"/>
-      <c r="X29" s="15"/>
+      <c r="X29" s="65"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
-    </row>
-    <row r="30" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="130" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="129"/>
+      <c r="AC29" s="15"/>
+    </row>
+    <row r="30" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="122">
+        <v>7</v>
+      </c>
+      <c r="D30" s="122">
+        <v>1</v>
+      </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="7"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="146"/>
+      <c r="X30" s="7"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="129"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
+      <c r="AC30" s="15"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -5232,29 +5541,31 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="S31" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="T31" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="U31" s="74"/>
-      <c r="V31" s="64">
+      <c r="R31" s="15"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="U31" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="V31" s="74"/>
+      <c r="W31" s="64">
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-      <c r="W31" s="62"/>
-      <c r="X31" s="15"/>
+      <c r="X31" s="62"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="129"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
+      <c r="AC31" s="15"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -5267,419 +5578,422 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="S32" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="T32" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="U32" s="51"/>
-      <c r="V32" s="66">
+      <c r="R32" s="15"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="U32" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="V32" s="51"/>
+      <c r="W32" s="66">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-      <c r="W32" s="62"/>
-      <c r="X32" s="15"/>
+      <c r="X32" s="62"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
-    </row>
-    <row r="33" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="129"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
+      <c r="AC32" s="15"/>
+    </row>
+    <row r="33" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="S33" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="T33" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="U33" s="75"/>
-      <c r="V33" s="68">
+      <c r="R33" s="15"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="U33" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="V33" s="75"/>
+      <c r="W33" s="68">
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-      <c r="W33" s="62"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="129"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
+      <c r="X33" s="62"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S23:V23"/>
+  <mergeCells count="11">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="I28:M28"/>
   </mergeCells>
-  <conditionalFormatting sqref="T4:U5 T1:U1 T27:U28 T31:U1048576 T7:U7">
-    <cfRule type="containsText" dxfId="231" priority="113" operator="containsText" text="Phy">
+  <conditionalFormatting sqref="U4:V5 U1:V1 U27:V28 U7:V7 T34:U1048576 U31:V33">
+    <cfRule type="containsText" dxfId="224" priority="113" operator="containsText" text="Phy">
       <formula>NOT(ISERROR(SEARCH("Phy",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="114" operator="containsText" text="Int">
+    <cfRule type="containsText" dxfId="223" priority="114" operator="containsText" text="Int">
       <formula>NOT(ISERROR(SEARCH("Int",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="115" operator="containsText" text="Exp">
+    <cfRule type="containsText" dxfId="222" priority="115" operator="containsText" text="Exp">
       <formula>NOT(ISERROR(SEARCH("Exp",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="116" operator="containsText" text="Cha">
+    <cfRule type="containsText" dxfId="221" priority="116" operator="containsText" text="Cha">
       <formula>NOT(ISERROR(SEARCH("Cha",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="117" operator="containsText" text="Agi">
+    <cfRule type="containsText" dxfId="220" priority="117" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH("Agi",T1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="118" operator="containsText" text="Str">
+    <cfRule type="containsText" dxfId="219" priority="118" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH("Str",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="225" priority="112" operator="lessThan">
+  <conditionalFormatting sqref="R34:R1048576 S1:S33 W34:W1048576 X1:X33">
+    <cfRule type="cellIs" dxfId="218" priority="112" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="cellIs" dxfId="224" priority="111" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="U6:V6">
+    <cfRule type="containsText" dxfId="217" priority="105" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="106" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="215" priority="107" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="108" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="109" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="212" priority="110" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6:U6">
-    <cfRule type="containsText" dxfId="223" priority="105" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="106" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="107" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="108" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="109" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="110" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T6)))</formula>
+  <conditionalFormatting sqref="U8:V8">
+    <cfRule type="containsText" dxfId="211" priority="99" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="100" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="101" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="102" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="207" priority="103" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="104" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:U8">
-    <cfRule type="containsText" dxfId="217" priority="99" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="100" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="101" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="102" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="103" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="104" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T8)))</formula>
+  <conditionalFormatting sqref="U9:V9">
+    <cfRule type="containsText" dxfId="205" priority="93" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="95" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="96" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="97" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="98" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9:U9">
-    <cfRule type="containsText" dxfId="211" priority="93" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="95" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="96" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="97" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="98" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T9)))</formula>
+  <conditionalFormatting sqref="U10:V10">
+    <cfRule type="containsText" dxfId="199" priority="87" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="88" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="89" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="90" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="91" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10:U10">
-    <cfRule type="containsText" dxfId="205" priority="87" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="88" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="89" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="90" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="91" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="92" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T10)))</formula>
+  <conditionalFormatting sqref="U12:V12">
+    <cfRule type="containsText" dxfId="193" priority="81" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="82" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="83" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="84" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="85" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="86" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12:U12">
-    <cfRule type="containsText" dxfId="199" priority="81" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="82" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="83" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="84" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="85" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="86" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T12)))</formula>
+  <conditionalFormatting sqref="U13:V13">
+    <cfRule type="containsText" dxfId="187" priority="69" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="70" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="71" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="72" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="73" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="74" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T13:U13">
-    <cfRule type="containsText" dxfId="193" priority="69" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="70" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="71" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="72" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="73" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="74" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T13)))</formula>
+  <conditionalFormatting sqref="U14:V14">
+    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="68" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:U14">
-    <cfRule type="containsText" dxfId="187" priority="63" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="64" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="65" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="66" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="67" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="68" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T14)))</formula>
+  <conditionalFormatting sqref="U17:V17">
+    <cfRule type="containsText" dxfId="175" priority="51" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="52" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="53" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="54" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="55" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="56" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:U17">
-    <cfRule type="containsText" dxfId="181" priority="51" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="52" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="53" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="54" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="55" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="56" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T17)))</formula>
+  <conditionalFormatting sqref="U15:V15">
+    <cfRule type="containsText" dxfId="169" priority="57" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15:U15">
-    <cfRule type="containsText" dxfId="175" priority="57" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="58" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="60" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="62" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T15)))</formula>
+  <conditionalFormatting sqref="U18:V18">
+    <cfRule type="containsText" dxfId="163" priority="45" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="46" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="47" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="48" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="49" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="50" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T18:U18">
-    <cfRule type="containsText" dxfId="169" priority="45" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="46" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="47" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="48" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T18)))</formula>
+  <conditionalFormatting sqref="U19:V19">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="41" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="42" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="43" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="44" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19:U19">
-    <cfRule type="containsText" dxfId="163" priority="39" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="40" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="41" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="42" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="43" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="44" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T19)))</formula>
+  <conditionalFormatting sqref="U20:V21">
+    <cfRule type="containsText" dxfId="151" priority="33" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="34" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="35" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="36" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="38" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20:U21">
-    <cfRule type="containsText" dxfId="157" priority="33" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="34" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="35" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="36" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="38" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T20)))</formula>
+  <conditionalFormatting sqref="U22:V22">
+    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="31" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="32" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22:U22">
-    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="30" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="32" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T22)))</formula>
+  <conditionalFormatting sqref="U24:V25">
+    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="22" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="24" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T24:U25">
-    <cfRule type="containsText" dxfId="145" priority="21" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="22" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T24)))</formula>
+  <conditionalFormatting sqref="U29:V29">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="17" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="18" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="19" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="20" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29:U29">
-    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="16" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="18" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="20" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T29)))</formula>
+  <conditionalFormatting sqref="U3:V3">
+    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="Phy">
+      <formula>NOT(ISERROR(SEARCH("Phy",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Int">
+      <formula>NOT(ISERROR(SEARCH("Int",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Exp">
+      <formula>NOT(ISERROR(SEARCH("Exp",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Cha">
+      <formula>NOT(ISERROR(SEARCH("Cha",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Agi">
+      <formula>NOT(ISERROR(SEARCH("Agi",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="14" operator="containsText" text="Str">
+      <formula>NOT(ISERROR(SEARCH("Str",U3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:U3">
-    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="Phy">
-      <formula>NOT(ISERROR(SEARCH("Phy",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="10" operator="containsText" text="Int">
-      <formula>NOT(ISERROR(SEARCH("Int",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="11" operator="containsText" text="Exp">
-      <formula>NOT(ISERROR(SEARCH("Exp",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="12" operator="containsText" text="Cha">
-      <formula>NOT(ISERROR(SEARCH("Cha",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="13" operator="containsText" text="Agi">
-      <formula>NOT(ISERROR(SEARCH("Agi",T3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="14" operator="containsText" text="Str">
-      <formula>NOT(ISERROR(SEARCH("Str",T3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",Z13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="6" operator="containsText" text="Leicht">
-      <formula>NOT(ISERROR(SEARCH("Leicht",Z13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Schwer">
-      <formula>NOT(ISERROR(SEARCH("Schwer",Z13)))</formula>
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",AA13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Leicht">
+      <formula>NOT(ISERROR(SEARCH("Leicht",AA13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Schwer">
+      <formula>NOT(ISERROR(SEARCH("Schwer",AA13)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -5692,21 +6006,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E25">
-    <cfRule type="containsText" dxfId="124" priority="4" operator="containsText" text="Debuff">
+  <conditionalFormatting sqref="E18:F25">
+    <cfRule type="containsText" dxfId="118" priority="4" operator="containsText" text="Debuff">
       <formula>NOT(ISERROR(SEARCH("Debuff",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E25">
-    <cfRule type="containsText" dxfId="123" priority="2" operator="containsText" text="Verstümmelt">
+  <conditionalFormatting sqref="E18:F25">
+    <cfRule type="containsText" dxfId="117" priority="2" operator="containsText" text="Verstümmelt">
       <formula>NOT(ISERROR(SEARCH("Verstümmelt",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="Verkrüppelt">
+    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="Verkrüppelt">
       <formula>NOT(ISERROR(SEARCH("Verkrüppelt",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="Inst">
+  <conditionalFormatting sqref="T34:U1048576 U1:V33">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="Inst">
       <formula>NOT(ISERROR(SEARCH("Inst",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5719,8 +6033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3873B7C-30AB-4500-9500-D99D9D1729B3}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5733,14 +6047,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="15">
         <v>30000</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="15">
         <f>13490-E2+E3</f>
@@ -5753,14 +6067,14 @@
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="15">
         <f>SUM(B7:B703)</f>
         <v>27510</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="15">
         <f>200</f>
@@ -5769,14 +6083,14 @@
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="15">
         <f>B1-B2</f>
         <v>2490</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="15">
         <f>15000</f>
@@ -5786,10 +6100,10 @@
     <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="5" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>113</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
@@ -5801,7 +6115,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -5809,7 +6123,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="15">
         <v>5000</v>
@@ -5826,7 +6140,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="15">
         <v>2250</v>
@@ -5837,7 +6151,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -5845,7 +6159,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="15">
         <v>3000</v>
@@ -5881,7 +6195,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5901,13 +6215,13 @@
     </row>
     <row r="14" spans="1:9" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>121</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>44</v>
@@ -5916,14 +6230,14 @@
         <v>3</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="15">
         <v>2000</v>
@@ -5937,14 +6251,14 @@
       <c r="E15" s="15"/>
       <c r="F15" s="12"/>
       <c r="G15" s="100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="15">
         <v>2000</v>
@@ -5966,7 +6280,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="15">
         <v>3000</v>
@@ -5985,7 +6299,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="15">
         <v>3000</v>
@@ -5999,14 +6313,14 @@
       <c r="E18" s="15"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="15">
         <v>3000</v>
@@ -6045,7 +6359,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
@@ -6102,13 +6416,13 @@
     </row>
     <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>44</v>
@@ -6117,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -6133,14 +6447,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="15">
         <f>200*E28</f>
         <v>400</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="15">
         <f>0.5*E28</f>
@@ -6156,14 +6470,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="15">
         <f>420*E29</f>
         <v>1260</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="15">
         <f>0.5*E29</f>
@@ -6190,13 +6504,13 @@
     </row>
     <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>135</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>136</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>44</v>
@@ -6205,7 +6519,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -6213,7 +6527,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="15">
         <v>100</v>
@@ -6225,7 +6539,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="15">
         <v>500</v>
@@ -6256,42 +6570,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="15">
         <v>300</v>
@@ -6300,25 +6614,25 @@
         <v>5</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="15">
         <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="15">
         <v>4</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="15">
         <v>6</v>
@@ -6326,7 +6640,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="15">
         <v>200</v>
@@ -6335,13 +6649,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="15">
         <v>5</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="15">
         <v>3</v>
@@ -6361,7 +6675,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="15">
         <v>50</v>
@@ -6370,19 +6684,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="15">
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="15">
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I4" s="15">
         <v>3</v>
@@ -6396,7 +6710,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="15">
         <v>50</v>
@@ -6405,19 +6719,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="15">
         <v>2</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -6431,7 +6745,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="15">
         <v>50</v>
@@ -6440,25 +6754,25 @@
         <v>10</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="15">
         <v>2</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="15">
         <v>4</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I6" s="15">
         <v>4</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="15">
         <v>3</v>
@@ -6466,7 +6780,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="15">
         <v>50</v>
@@ -6475,19 +6789,19 @@
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" s="15">
         <v>3</v>
@@ -6531,11 +6845,836 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE86972-147E-4E91-B657-780DABB21689}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="131" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="132" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="152"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="134" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="155"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="I3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="I4" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" s="15">
+        <v>22500</v>
+      </c>
+      <c r="K4" s="15">
+        <v>34</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2</v>
+      </c>
+      <c r="M4" s="15">
+        <v>1</v>
+      </c>
+      <c r="N4" s="137" t="s">
+        <v>314</v>
+      </c>
+      <c r="O4" s="137"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="152"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="I6" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="134" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="15">
+        <f>420*M11</f>
+        <v>1680</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15">
+        <f>0.5*M11</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="15">
+        <v>4</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="15">
+        <f>900*M12</f>
+        <v>3600</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15">
+        <f t="shared" ref="L12:L18" si="0">0.5*M12</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="15">
+        <v>4</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" s="15">
+        <f>420*M13</f>
+        <v>1680</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>4</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="J14" s="15">
+        <f>900*M14</f>
+        <v>3600</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>4</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="15">
+        <f>5000*M15</f>
+        <v>10000</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="15">
+        <v>2</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="J16" s="15">
+        <f>5000*M16</f>
+        <v>15000</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="15">
+        <v>3</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="J17" s="15">
+        <f>3000*M17</f>
+        <v>3000</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" s="15">
+        <f>2000*M18</f>
+        <v>4000</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="15">
+        <v>2</v>
+      </c>
+      <c r="N18" s="138" t="s">
+        <v>330</v>
+      </c>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="J19" s="15">
+        <v>4200</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="I21" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="J23" s="15">
+        <v>50</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
+        <v>3</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="I24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="15">
+        <v>100</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="15">
+        <v>2</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J25" s="15">
+        <v>400</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15">
+        <v>4</v>
+      </c>
+      <c r="M25" s="15">
+        <v>1</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="15">
+        <v>500</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O35" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D94E68-96A6-4585-A3BB-4985596F1D86}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6555,16 +7694,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>164</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>165</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>6</v>
@@ -6574,7 +7713,7 @@
       </c>
       <c r="G1" s="31"/>
       <c r="H1" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>8</v>
@@ -6584,10 +7723,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="15">
@@ -6626,19 +7765,19 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="P2" s="9"/>
     </row>
@@ -6675,7 +7814,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="15">
         <v>3</v>
@@ -6684,7 +7823,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P3" s="8"/>
     </row>
@@ -6715,7 +7854,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="15">
         <v>4</v>
@@ -6724,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7"/>
     </row>
@@ -6757,7 +7896,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -6776,13 +7915,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="84" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="89">
@@ -6798,7 +7937,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="65" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B7" s="86">
         <v>12</v>
@@ -6868,7 +8007,7 @@
     </row>
     <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="95">
         <v>5</v>
@@ -6876,7 +8015,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="61" t="s">
         <v>38</v>
@@ -6898,7 +8037,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="102">
         <f>ROUND((B8+B5+B7+B9)/2,0)</f>
@@ -6907,7 +8046,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>22</v>
@@ -6931,7 +8070,7 @@
     </row>
     <row r="11" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="101">
         <f>B5-Inventar!H22</f>
@@ -6940,7 +8079,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>38</v>
@@ -6966,7 +8105,7 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>38</v>
@@ -6990,13 +8129,13 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="90">
@@ -7016,13 +8155,13 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="69" t="s">
-        <v>68</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="88">
@@ -7038,7 +8177,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3">
         <v>275</v>
@@ -7048,10 +8187,10 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="7">
@@ -7070,7 +8209,7 @@
     </row>
     <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
@@ -7078,10 +8217,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="7"/>
@@ -7098,22 +8237,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="40">
-        <f>CharacterSheet!$B$15*0.2</f>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="66" t="s">
         <v>169</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>170</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="89">
@@ -7122,22 +8261,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="39">
-        <f>CharacterSheet!$B$15*0.7</f>
-        <v>192.5</v>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.7,0)</f>
+        <v>193</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="G18" s="66" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H18" s="7">
         <v>-8</v>
@@ -7148,26 +8287,26 @@
     </row>
     <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B19" s="39">
-        <f>CharacterSheet!$B$15*0.2</f>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C19" s="15">
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="90">
@@ -7176,10 +8315,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="39" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B20" s="39">
-        <f>CharacterSheet!$B$15*0.2</f>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.2,0)</f>
         <v>55</v>
       </c>
       <c r="C20" s="15">
@@ -7187,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="71" t="s">
         <v>23</v>
@@ -7203,16 +8342,16 @@
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="39" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B21" s="39">
-        <f>CharacterSheet!$B$15*0.25</f>
-        <v>68.75</v>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
+        <v>69</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="70" t="s">
         <v>23</v>
@@ -7227,21 +8366,21 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="39" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B22" s="39">
-        <f>CharacterSheet!$B$15*0.25</f>
-        <v>68.75</v>
+        <f>ROUNDUP(CharacterSheet!$B$15*0.25,0)</f>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="7"/>
@@ -7255,10 +8394,10 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="84"/>
       <c r="H23" s="7"/>
@@ -7272,13 +8411,13 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="90">
@@ -7291,10 +8430,10 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G25" s="85"/>
       <c r="H25" s="7"/>
@@ -7308,10 +8447,10 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="65" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G26" s="86"/>
       <c r="H26" s="7"/>
@@ -7325,10 +8464,10 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="75" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="22">
@@ -7752,7 +8891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB29849-F989-443C-A326-7D0CBD1A3348}">
   <dimension ref="A1:O32"/>
   <sheetViews>
@@ -7772,12 +8911,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -7793,40 +8932,40 @@
     </row>
     <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="J2" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="L2" s="112" t="s">
+      <c r="M2" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="112" t="s">
+      <c r="N2" s="99" t="s">
         <v>179</v>
-      </c>
-      <c r="N2" s="99" t="s">
-        <v>180</v>
       </c>
       <c r="O2" s="27"/>
     </row>
@@ -7849,14 +8988,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -7864,10 +9003,10 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="J4" s="15">
         <v>10</v>
@@ -7882,20 +9021,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="15">
         <v>2</v>
@@ -7903,10 +9042,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="J5" s="15">
         <v>10</v>
@@ -7921,20 +9060,20 @@
         <v>2</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="15">
         <v>4</v>
@@ -7952,14 +9091,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="15">
         <v>6</v>
@@ -7977,14 +9116,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="15">
         <v>8</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="15">
         <v>8</v>
@@ -8002,7 +9141,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="15">
         <v>10</v>
@@ -8040,10 +9179,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -8078,7 +9217,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="15">
         <v>0.5</v>
@@ -8086,7 +9225,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
@@ -8101,7 +9240,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -8109,7 +9248,7 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14" s="20">
         <v>4</v>
@@ -8126,7 +9265,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="15">
         <v>2</v>
@@ -8147,7 +9286,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
@@ -8155,10 +9294,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -8172,7 +9311,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="15">
         <v>6</v>
@@ -8188,7 +9327,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="15">
         <v>8</v>
@@ -8216,10 +9355,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -8244,7 +9383,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
@@ -8260,7 +9399,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
@@ -8276,7 +9415,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
@@ -8292,7 +9431,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="15">
         <v>4</v>
@@ -8308,7 +9447,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="15">
         <v>5</v>
@@ -8324,7 +9463,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="15">
         <v>6</v>
@@ -8397,7 +9536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B352E-B27D-4A46-8C46-2B25FAECD2D5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8412,7 +9551,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8420,40 +9559,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CBAC1-0082-4C21-987A-8C7484178B5D}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.15625" customWidth="1"/>
+    <col min="2" max="2" width="8.41796875" customWidth="1"/>
+    <col min="4" max="4" width="5.9453125" customWidth="1"/>
+    <col min="5" max="5" width="15.83984375" customWidth="1"/>
+    <col min="6" max="6" width="8.41796875" customWidth="1"/>
+    <col min="7" max="7" width="13.47265625" customWidth="1"/>
+    <col min="8" max="8" width="6.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+      <c r="G1" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="127" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8469,15 +9623,26 @@
         <f>CharacterSheet!I2</f>
         <v>29</v>
       </c>
-      <c r="E2" s="117" t="s">
-        <v>241</v>
+      <c r="E2" s="127" t="s">
+        <v>289</v>
       </c>
       <c r="F2" s="15">
-        <f>[1]CharacterSheet!B17</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B15</f>
+        <v>275</v>
+      </c>
+      <c r="G2" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2">
+        <f>Status!C26</f>
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <f>Status!Z2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8493,17 +9658,28 @@
         <f>CharacterSheet!I3</f>
         <v>30</v>
       </c>
-      <c r="E3" s="117" t="s">
-        <v>242</v>
+      <c r="E3" s="127" t="s">
+        <v>288</v>
       </c>
       <c r="F3" s="15">
-        <f>[1]CharacterSheet!B18</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B16</f>
+        <v>12</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="15">
+        <f>Status!C27</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="15">
+        <f>Status!Z3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="15">
         <f>CharacterSheet!B4</f>
@@ -8518,14 +9694,25 @@
         <v>20</v>
       </c>
       <c r="E4" s="117" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="F4" s="15">
-        <f>[1]CharacterSheet!B19</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B17</f>
+        <v>55</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="15">
+        <f>Status!C28</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="15">
+        <f>Status!Z4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
@@ -8542,16 +9729,27 @@
         <v>30</v>
       </c>
       <c r="E5" s="117" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="F5" s="15">
-        <f>[1]CharacterSheet!B20</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B18</f>
+        <v>193</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5">
+        <f>Status!C30</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="15">
+        <f>Status!Z5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="15">
         <f>CharacterSheet!B6</f>
@@ -8566,16 +9764,27 @@
         <v>20</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="F6" s="15">
-        <f>[1]CharacterSheet!B21</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B19</f>
+        <v>55</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6">
+        <f>Status!D2</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="15">
+        <f>Status!Z6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B7" s="15">
         <f>CharacterSheet!B7</f>
@@ -8590,14 +9799,25 @@
         <v>20</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="F7" s="15">
-        <f>[1]CharacterSheet!B22</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f>CharacterSheet!B20</f>
+        <v>55</v>
+      </c>
+      <c r="G7" s="127" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="15">
+        <f>Status!D3</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <f>Status!Z7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="str">
         <f>CharacterSheet!A8</f>
         <v>Luck</v>
@@ -8614,10 +9834,23 @@
         <f>CharacterSheet!I8</f>
         <v>20</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="15">
+        <f>CharacterSheet!B21</f>
+        <v>69</v>
+      </c>
+      <c r="G8" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="15">
+        <f>Status!D4</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="str">
         <f>CharacterSheet!A9</f>
         <v>Glaube</v>
@@ -8634,10 +9867,25 @@
         <f>CharacterSheet!I9</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="15">
+        <f>CharacterSheet!B22</f>
+        <v>69</v>
+      </c>
+      <c r="G9" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="15">
+        <f>Status!D5</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B10" s="15">
         <f>CharacterSheet!B10</f>
@@ -8651,10 +9899,27 @@
         <f>CharacterSheet!I10</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="15" t="str">
+        <f>CharacterSheet!B1</f>
+        <v>Mensch</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10">
+        <f>Status!D8</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" s="15">
         <f>CharacterSheet!B11</f>
@@ -8668,14 +9933,30 @@
         <f>CharacterSheet!I11</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="15">
+        <f>Status!D9</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="15">
-        <f>CharacterSheet!B15</f>
-        <v>275</v>
+        <v>223</v>
+      </c>
+      <c r="B12">
+        <f>Inventar!G22</f>
+        <v>15.5</v>
       </c>
       <c r="C12" s="15" t="str">
         <f>CharacterSheet!E12</f>
@@ -8685,14 +9966,27 @@
         <f>CharacterSheet!I12</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="15">
+        <f>Status!D10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="15">
-        <f>CharacterSheet!B16</f>
-        <v>12</v>
+        <v>224</v>
+      </c>
+      <c r="B13">
+        <f>Inventar!G19</f>
+        <v>19.5</v>
       </c>
       <c r="C13" s="15" t="str">
         <f>CharacterSheet!E13</f>
@@ -8702,14 +9996,28 @@
         <f>CharacterSheet!I13</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="E13" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="13">
-        <f>Status!C13</f>
-        <v>43.5</v>
+      <c r="F13" t="str">
+        <f>Status!B2</f>
+        <v>Schwert</v>
+      </c>
+      <c r="G13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="15">
+        <f>Status!D11</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="15">
+        <f>Status!AA11</f>
+        <v>48</v>
       </c>
       <c r="C14" s="15" t="str">
         <f>CharacterSheet!E14</f>
@@ -8719,15 +10027,28 @@
         <f>CharacterSheet!I14</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="str">
-        <f>Status!A8</f>
-        <v>Helm</v>
-      </c>
-      <c r="B15" s="13">
-        <f>Status!C8</f>
-        <v>10.5</v>
+      <c r="E14" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="15" t="str">
+        <f>Status!B3</f>
+        <v>Dolch</v>
+      </c>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="15">
+        <f>Status!D12</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Status!AA13</f>
+        <v>Leicht</v>
       </c>
       <c r="C15" s="15" t="str">
         <f>CharacterSheet!E15</f>
@@ -8737,15 +10058,28 @@
         <f>CharacterSheet!I15</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="15" t="str">
-        <f>Status!A9</f>
-        <v>Brust</v>
-      </c>
-      <c r="B16" s="13">
-        <f>Status!C9</f>
-        <v>6</v>
+      <c r="E15" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="15">
+        <f>Status!B4</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15">
+        <f>Status!E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16">
+        <f>Status!R12</f>
+        <v>13</v>
       </c>
       <c r="C16" s="15" t="str">
         <f>CharacterSheet!E16</f>
@@ -8755,15 +10089,28 @@
         <f>CharacterSheet!I16</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="15" t="str">
-        <f>Status!A10</f>
-        <v>Arme</v>
-      </c>
-      <c r="B17" s="13">
-        <f>Status!C10</f>
-        <v>6</v>
+      <c r="E16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="15" t="str">
+        <f>Status!B5</f>
+        <v>Leichter Schild</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="15">
+        <f>Status!E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>11</v>
       </c>
       <c r="C17" s="15" t="str">
         <f>CharacterSheet!E17</f>
@@ -8773,15 +10120,28 @@
         <f>CharacterSheet!I17</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="15" t="str">
-        <f>Status!A11</f>
-        <v>Gürtel</v>
-      </c>
-      <c r="B18" s="13">
-        <f>Status!C11</f>
-        <v>10.5</v>
+      <c r="E17" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="15">
+        <f>Status!C2</f>
+        <v>42</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="15">
+        <f>Status!E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="15">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
       </c>
       <c r="C18" s="15" t="str">
         <f>CharacterSheet!E18</f>
@@ -8791,15 +10151,28 @@
         <f>CharacterSheet!I18</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="15" t="str">
-        <f>Status!A12</f>
-        <v>Beine</v>
-      </c>
-      <c r="B19" s="13">
-        <f>Status!C12</f>
-        <v>10.5</v>
+      <c r="E18" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="15">
+        <f>Status!C3</f>
+        <v>12</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="15">
+        <f>Status!E11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19">
+        <f>CharacterSheet!B8+CharacterSheet!B9</f>
+        <v>10</v>
       </c>
       <c r="C19" s="15" t="str">
         <f>CharacterSheet!E19</f>
@@ -8809,14 +10182,27 @@
         <f>CharacterSheet!I19</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20">
-        <f>Inventar!G22</f>
-        <v>15.5</v>
+      <c r="E19" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="15">
+        <f>Status!C4</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="15">
+        <f>Status!E12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>286</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>CharacterSheet!E20</f>
@@ -8826,14 +10212,28 @@
         <f>CharacterSheet!I20</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>227</v>
+      <c r="E20" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="15">
+        <f>Status!C5</f>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" t="str">
+        <f>Status!B8</f>
+        <v>Mittel</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="117" t="s">
+        <v>90</v>
       </c>
       <c r="B21">
-        <f>Inventar!G19</f>
-        <v>19.5</v>
+        <f>Status!D16</f>
+        <v>275</v>
       </c>
       <c r="C21" s="15" t="str">
         <f>CharacterSheet!E21</f>
@@ -8843,14 +10243,28 @@
         <f>CharacterSheet!I21</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" t="str">
-        <f>Status!Z13</f>
+      <c r="E21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="13">
+        <f>Status!C13</f>
+        <v>43.5</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" s="15" t="str">
+        <f>Status!B9</f>
         <v>Leicht</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="15">
+        <f>Status!D17</f>
+        <v>12</v>
       </c>
       <c r="C22" s="15" t="str">
         <f>CharacterSheet!E22</f>
@@ -8860,14 +10274,29 @@
         <f>CharacterSheet!I22</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23">
-        <f>Status!C2</f>
-        <v>30</v>
+      <c r="E22" s="15" t="str">
+        <f>Status!A8</f>
+        <v>Helm</v>
+      </c>
+      <c r="F22" s="13">
+        <f>Status!C8</f>
+        <v>10.5</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="15" t="str">
+        <f>Status!B10</f>
+        <v>Leicht</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="15">
+        <f>Status!D18</f>
+        <v>55</v>
       </c>
       <c r="C23" s="15" t="str">
         <f>CharacterSheet!E23</f>
@@ -8877,14 +10306,29 @@
         <f>CharacterSheet!I23</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>217</v>
+      <c r="E23" s="15" t="str">
+        <f>Status!A9</f>
+        <v>Brust</v>
+      </c>
+      <c r="F23" s="13">
+        <f>Status!C9</f>
+        <v>6</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="15" t="str">
+        <f>Status!B11</f>
+        <v>Mittel</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="117" t="s">
+        <v>236</v>
       </c>
       <c r="B24" s="15">
-        <f>Status!C3</f>
-        <v>12</v>
+        <f>Status!D19</f>
+        <v>193</v>
       </c>
       <c r="C24" s="15" t="str">
         <f>CharacterSheet!E24</f>
@@ -8894,14 +10338,29 @@
         <f>CharacterSheet!I24</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>228</v>
+      <c r="E24" s="15" t="str">
+        <f>Status!A10</f>
+        <v>Arme</v>
+      </c>
+      <c r="F24" s="13">
+        <f>Status!C10</f>
+        <v>6</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="15" t="str">
+        <f>Status!B12</f>
+        <v>Mittel</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="117" t="s">
+        <v>239</v>
       </c>
       <c r="B25" s="15">
-        <f>Status!C4</f>
-        <v>0</v>
+        <f>Status!D20</f>
+        <v>55</v>
       </c>
       <c r="C25" s="15" t="str">
         <f>CharacterSheet!E25</f>
@@ -8911,30 +10370,46 @@
         <f>CharacterSheet!I25</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="15" t="s">
-        <v>229</v>
+      <c r="E25" s="15" t="str">
+        <f>Status!A11</f>
+        <v>Gürtel</v>
+      </c>
+      <c r="F25" s="13">
+        <f>Status!C11</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="117" t="s">
+        <v>240</v>
       </c>
       <c r="B26" s="15">
-        <f>Status!C5</f>
-        <v>15</v>
+        <f>Status!D21</f>
+        <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D26" s="15">
         <f>CharacterSheet!I26</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" t="str">
-        <f>Status!B2</f>
-        <v>Schwert</v>
+      <c r="E26" s="15" t="str">
+        <f>Status!A12</f>
+        <v>Beine</v>
+      </c>
+      <c r="F26" s="13">
+        <f>Status!C12</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="117" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="15">
+        <f>Status!D22</f>
+        <v>69</v>
       </c>
       <c r="C27" s="15" t="str">
         <f>CharacterSheet!E27</f>
@@ -8944,82 +10419,42 @@
         <f>CharacterSheet!I27</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="15" t="str">
-        <f>Status!B3</f>
-        <v>Dolch</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D28" t="str">
-        <f>CharacterSheet!B1</f>
-        <v>Mensch</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>230</v>
-      </c>
-      <c r="B29" s="15">
-        <f>Status!B4</f>
+      <c r="E27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" t="str">
+        <f>Status!I29</f>
+        <v>Plötze</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="15">
+        <f>Status!D23</f>
+        <v>69</v>
+      </c>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29">
+        <f>Status!Q17</f>
         <v>0</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30">
-        <f>Status!Q12</f>
-        <v>13</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>11</v>
-      </c>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="15">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33">
-        <f>CharacterSheet!B8+CharacterSheet!B9</f>
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>